--- a/PublicTools/econfigs/3_characterlevelup.xlsx
+++ b/PublicTools/econfigs/3_characterlevelup.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Family\叶烁\工作\xxpniu\MultiplayerGame\PublicTools\econfigs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BB5C0D-B2A6-4F86-AAC5-3A3908E1C0BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CD7899-EA6F-9A49-95EA-A238219E8E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
     <sheet name="CharacterLevelUpData" sheetId="2" r:id="rId2"/>
     <sheet name="索引" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjcnzDEuKm8HTId/Jv4mkpm7knp9w=="/>
     </ext>
@@ -314,12 +325,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -380,17 +393,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -610,13 +622,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="26" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -28636,24 +28648,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U253"/>
+  <dimension ref="A1:U303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="L294" sqref="L294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="21" width="7.75" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="21" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
@@ -28769,7 +28781,7 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -28804,7 +28816,7 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
       <c r="C5" s="4">
@@ -28839,7 +28851,7 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="4">
@@ -28874,7 +28886,7 @@
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
       <c r="C7" s="4">
@@ -28909,7 +28921,7 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="4">
@@ -28944,7 +28956,7 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>6</v>
       </c>
       <c r="C9" s="4">
@@ -28979,7 +28991,7 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="4">
@@ -29014,7 +29026,7 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>8</v>
       </c>
       <c r="C11" s="4">
@@ -29049,7 +29061,7 @@
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>9</v>
       </c>
       <c r="C12" s="4">
@@ -29084,7 +29096,7 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
       <c r="C13" s="4">
@@ -29119,7 +29131,7 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>11</v>
       </c>
       <c r="C14" s="4">
@@ -29154,7 +29166,7 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>12</v>
       </c>
       <c r="C15" s="4">
@@ -29189,7 +29201,7 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>13</v>
       </c>
       <c r="C16" s="4">
@@ -29224,7 +29236,7 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>14</v>
       </c>
       <c r="C17" s="4">
@@ -29259,7 +29271,7 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>15</v>
       </c>
       <c r="C18" s="4">
@@ -29294,7 +29306,7 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>16</v>
       </c>
       <c r="C19" s="4">
@@ -29329,7 +29341,7 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>17</v>
       </c>
       <c r="C20" s="4">
@@ -29364,7 +29376,7 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>18</v>
       </c>
       <c r="C21" s="4">
@@ -29399,7 +29411,7 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>19</v>
       </c>
       <c r="C22" s="4">
@@ -29434,7 +29446,7 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>20</v>
       </c>
       <c r="C23" s="4">
@@ -29469,7 +29481,7 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>21</v>
       </c>
       <c r="C24" s="4">
@@ -29504,7 +29516,7 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>22</v>
       </c>
       <c r="C25" s="4">
@@ -29539,7 +29551,7 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>23</v>
       </c>
       <c r="C26" s="4">
@@ -29574,7 +29586,7 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>24</v>
       </c>
       <c r="C27" s="4">
@@ -29609,7 +29621,7 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>25</v>
       </c>
       <c r="C28" s="4">
@@ -29644,7 +29656,7 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>26</v>
       </c>
       <c r="C29" s="4">
@@ -29679,7 +29691,7 @@
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>27</v>
       </c>
       <c r="C30" s="4">
@@ -29714,7 +29726,7 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>28</v>
       </c>
       <c r="C31" s="4">
@@ -29749,7 +29761,7 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>29</v>
       </c>
       <c r="C32" s="4">
@@ -29784,7 +29796,7 @@
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>30</v>
       </c>
       <c r="C33" s="4">
@@ -29819,7 +29831,7 @@
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>31</v>
       </c>
       <c r="C34" s="4">
@@ -29854,7 +29866,7 @@
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>32</v>
       </c>
       <c r="C35" s="4">
@@ -29889,7 +29901,7 @@
     </row>
     <row r="36" spans="1:21" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>33</v>
       </c>
       <c r="C36" s="4">
@@ -29924,7 +29936,7 @@
     </row>
     <row r="37" spans="1:21" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>34</v>
       </c>
       <c r="C37" s="4">
@@ -29959,7 +29971,7 @@
     </row>
     <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>35</v>
       </c>
       <c r="C38" s="4">
@@ -29994,7 +30006,7 @@
     </row>
     <row r="39" spans="1:21" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>36</v>
       </c>
       <c r="C39" s="4">
@@ -30029,7 +30041,7 @@
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>37</v>
       </c>
       <c r="C40" s="4">
@@ -30064,7 +30076,7 @@
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>38</v>
       </c>
       <c r="C41" s="4">
@@ -30099,7 +30111,7 @@
     </row>
     <row r="42" spans="1:21" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>39</v>
       </c>
       <c r="C42" s="4">
@@ -30134,7 +30146,7 @@
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>40</v>
       </c>
       <c r="C43" s="4">
@@ -30169,7 +30181,7 @@
     </row>
     <row r="44" spans="1:21" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>41</v>
       </c>
       <c r="C44" s="4">
@@ -30204,7 +30216,7 @@
     </row>
     <row r="45" spans="1:21" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>42</v>
       </c>
       <c r="C45" s="4">
@@ -30239,7 +30251,7 @@
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>43</v>
       </c>
       <c r="C46" s="4">
@@ -30274,7 +30286,7 @@
     </row>
     <row r="47" spans="1:21" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>44</v>
       </c>
       <c r="C47" s="4">
@@ -30309,7 +30321,7 @@
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>45</v>
       </c>
       <c r="C48" s="4">
@@ -30344,7 +30356,7 @@
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>46</v>
       </c>
       <c r="C49" s="4">
@@ -30379,7 +30391,7 @@
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>47</v>
       </c>
       <c r="C50" s="4">
@@ -30414,7 +30426,7 @@
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>48</v>
       </c>
       <c r="C51" s="4">
@@ -30449,7 +30461,7 @@
     </row>
     <row r="52" spans="1:21" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>49</v>
       </c>
       <c r="C52" s="4">
@@ -30484,7 +30496,7 @@
     </row>
     <row r="53" spans="1:21" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>50</v>
       </c>
       <c r="C53" s="4">
@@ -30518,21 +30530,21 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="1:21" ht="15" customHeight="1">
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>51</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="4">
         <v>2</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <f>D4</f>
         <v>1</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="4">
         <f t="shared" ref="E54:F54" si="0">E4</f>
         <v>50</v>
       </c>
-      <c r="F54" s="6" t="str">
+      <c r="F54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1|3|4</v>
       </c>
@@ -30542,21 +30554,21 @@
       </c>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1">
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>52</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="4">
         <v>2</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <f t="shared" ref="D55:G55" si="1">D5</f>
         <v>2</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="4">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="F55" s="6" t="str">
+      <c r="F55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1|3|4</v>
       </c>
@@ -30566,21 +30578,21 @@
       </c>
     </row>
     <row r="56" spans="1:21" ht="15" customHeight="1">
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>53</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="4">
         <v>2</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <f t="shared" ref="D56:G56" si="2">D6</f>
         <v>3</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="4">
         <f t="shared" si="2"/>
         <v>311</v>
       </c>
-      <c r="F56" s="6" t="str">
+      <c r="F56" s="4" t="str">
         <f t="shared" si="2"/>
         <v>1|3|4</v>
       </c>
@@ -30590,21 +30602,21 @@
       </c>
     </row>
     <row r="57" spans="1:21" ht="15" customHeight="1">
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>54</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="4">
         <v>2</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <f t="shared" ref="D57:G57" si="3">D7</f>
         <v>4</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="4">
         <f t="shared" si="3"/>
         <v>542</v>
       </c>
-      <c r="F57" s="6" t="str">
+      <c r="F57" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1|3|4</v>
       </c>
@@ -30614,21 +30626,21 @@
       </c>
     </row>
     <row r="58" spans="1:21" ht="15" customHeight="1">
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>55</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="4">
         <v>2</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <f t="shared" ref="D58:G58" si="4">D8</f>
         <v>5</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="4">
         <f t="shared" si="4"/>
         <v>837</v>
       </c>
-      <c r="F58" s="6" t="str">
+      <c r="F58" s="4" t="str">
         <f t="shared" si="4"/>
         <v>1|3|4</v>
       </c>
@@ -30638,21 +30650,21 @@
       </c>
     </row>
     <row r="59" spans="1:21" ht="15" customHeight="1">
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>56</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="4">
         <v>2</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <f t="shared" ref="D59:G59" si="5">D9</f>
         <v>6</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="4">
         <f t="shared" si="5"/>
         <v>1195</v>
       </c>
-      <c r="F59" s="6" t="str">
+      <c r="F59" s="4" t="str">
         <f t="shared" si="5"/>
         <v>1|3|4</v>
       </c>
@@ -30662,21 +30674,21 @@
       </c>
     </row>
     <row r="60" spans="1:21" ht="15" customHeight="1">
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>57</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="4">
         <v>2</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <f t="shared" ref="D60:G60" si="6">D10</f>
         <v>7</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="4">
         <f t="shared" si="6"/>
         <v>1617</v>
       </c>
-      <c r="F60" s="6" t="str">
+      <c r="F60" s="4" t="str">
         <f t="shared" si="6"/>
         <v>1|3|4</v>
       </c>
@@ -30686,21 +30698,21 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1">
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>58</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="4">
         <v>2</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <f t="shared" ref="D61:G61" si="7">D11</f>
         <v>8</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="4">
         <f t="shared" si="7"/>
         <v>2103</v>
       </c>
-      <c r="F61" s="6" t="str">
+      <c r="F61" s="4" t="str">
         <f t="shared" si="7"/>
         <v>1|3|4</v>
       </c>
@@ -30710,21 +30722,21 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="15" customHeight="1">
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>59</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="4">
         <v>2</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <f t="shared" ref="D62:G62" si="8">D12</f>
         <v>9</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="4">
         <f t="shared" si="8"/>
         <v>2652</v>
       </c>
-      <c r="F62" s="6" t="str">
+      <c r="F62" s="4" t="str">
         <f t="shared" si="8"/>
         <v>1|3|4</v>
       </c>
@@ -30734,21 +30746,21 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" customHeight="1">
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>60</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="4">
         <v>2</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <f t="shared" ref="D63:G63" si="9">D13</f>
         <v>10</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="4">
         <f t="shared" si="9"/>
         <v>3265</v>
       </c>
-      <c r="F63" s="6" t="str">
+      <c r="F63" s="4" t="str">
         <f t="shared" si="9"/>
         <v>1|3|4</v>
       </c>
@@ -30758,21 +30770,21 @@
       </c>
     </row>
     <row r="64" spans="1:21" ht="15" customHeight="1">
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>61</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="4">
         <v>2</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="4">
         <f t="shared" ref="D64:G64" si="10">D14</f>
         <v>11</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="4">
         <f t="shared" si="10"/>
         <v>3942</v>
       </c>
-      <c r="F64" s="6" t="str">
+      <c r="F64" s="4" t="str">
         <f t="shared" si="10"/>
         <v>1|3|4</v>
       </c>
@@ -30782,21 +30794,21 @@
       </c>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1">
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>62</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="4">
         <v>2</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <f t="shared" ref="D65:G65" si="11">D15</f>
         <v>12</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="4">
         <f t="shared" si="11"/>
         <v>4682</v>
       </c>
-      <c r="F65" s="6" t="str">
+      <c r="F65" s="4" t="str">
         <f t="shared" si="11"/>
         <v>1|3|4</v>
       </c>
@@ -30806,21 +30818,21 @@
       </c>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1">
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>63</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="4">
         <v>2</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="4">
         <f t="shared" ref="D66:G66" si="12">D16</f>
         <v>13</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="4">
         <f t="shared" si="12"/>
         <v>5487</v>
       </c>
-      <c r="F66" s="6" t="str">
+      <c r="F66" s="4" t="str">
         <f t="shared" si="12"/>
         <v>1|3|4</v>
       </c>
@@ -30830,21 +30842,21 @@
       </c>
     </row>
     <row r="67" spans="2:7" ht="15" customHeight="1">
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>64</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="4">
         <v>2</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="4">
         <f t="shared" ref="D67:G67" si="13">D17</f>
         <v>14</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="4">
         <f t="shared" si="13"/>
         <v>6354</v>
       </c>
-      <c r="F67" s="6" t="str">
+      <c r="F67" s="4" t="str">
         <f t="shared" si="13"/>
         <v>1|3|4</v>
       </c>
@@ -30854,21 +30866,21 @@
       </c>
     </row>
     <row r="68" spans="2:7" ht="15" customHeight="1">
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>65</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="4">
         <v>2</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <f t="shared" ref="D68:G68" si="14">D18</f>
         <v>15</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="4">
         <f t="shared" si="14"/>
         <v>7286</v>
       </c>
-      <c r="F68" s="6" t="str">
+      <c r="F68" s="4" t="str">
         <f t="shared" si="14"/>
         <v>1|3|4</v>
       </c>
@@ -30878,21 +30890,21 @@
       </c>
     </row>
     <row r="69" spans="2:7" ht="15" customHeight="1">
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>66</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="4">
         <v>2</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="4">
         <f t="shared" ref="D69:G69" si="15">D19</f>
         <v>16</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="4">
         <f t="shared" si="15"/>
         <v>8281</v>
       </c>
-      <c r="F69" s="6" t="str">
+      <c r="F69" s="4" t="str">
         <f t="shared" si="15"/>
         <v>1|3|4</v>
       </c>
@@ -30902,21 +30914,21 @@
       </c>
     </row>
     <row r="70" spans="2:7" ht="15" customHeight="1">
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>67</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="4">
         <v>2</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <f t="shared" ref="D70:G70" si="16">D20</f>
         <v>17</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="4">
         <f t="shared" si="16"/>
         <v>9340</v>
       </c>
-      <c r="F70" s="6" t="str">
+      <c r="F70" s="4" t="str">
         <f t="shared" si="16"/>
         <v>1|3|4</v>
       </c>
@@ -30926,21 +30938,21 @@
       </c>
     </row>
     <row r="71" spans="2:7" ht="15" customHeight="1">
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>68</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="4">
         <v>2</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <f t="shared" ref="D71:G71" si="17">D21</f>
         <v>18</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="4">
         <f t="shared" si="17"/>
         <v>10462</v>
       </c>
-      <c r="F71" s="6" t="str">
+      <c r="F71" s="4" t="str">
         <f t="shared" si="17"/>
         <v>1|3|4</v>
       </c>
@@ -30950,21 +30962,21 @@
       </c>
     </row>
     <row r="72" spans="2:7" ht="15" customHeight="1">
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>69</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="4">
         <v>2</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <f t="shared" ref="D72:G72" si="18">D22</f>
         <v>19</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="4">
         <f t="shared" si="18"/>
         <v>11648</v>
       </c>
-      <c r="F72" s="6" t="str">
+      <c r="F72" s="4" t="str">
         <f t="shared" si="18"/>
         <v>1|3|4</v>
       </c>
@@ -30974,21 +30986,21 @@
       </c>
     </row>
     <row r="73" spans="2:7" ht="15" customHeight="1">
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>70</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="4">
         <v>2</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <f t="shared" ref="D73:G73" si="19">D23</f>
         <v>20</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="4">
         <f t="shared" si="19"/>
         <v>12898</v>
       </c>
-      <c r="F73" s="6" t="str">
+      <c r="F73" s="4" t="str">
         <f t="shared" si="19"/>
         <v>1|3|4</v>
       </c>
@@ -30998,21 +31010,21 @@
       </c>
     </row>
     <row r="74" spans="2:7" ht="15" customHeight="1">
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>71</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="4">
         <v>2</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <f t="shared" ref="D74:G74" si="20">D24</f>
         <v>21</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="4">
         <f t="shared" si="20"/>
         <v>14211</v>
       </c>
-      <c r="F74" s="6" t="str">
+      <c r="F74" s="4" t="str">
         <f t="shared" si="20"/>
         <v>1|3|4</v>
       </c>
@@ -31022,21 +31034,21 @@
       </c>
     </row>
     <row r="75" spans="2:7" ht="15" customHeight="1">
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>72</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="4">
         <v>2</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="4">
         <f t="shared" ref="D75:G75" si="21">D25</f>
         <v>22</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="4">
         <f t="shared" si="21"/>
         <v>15589</v>
       </c>
-      <c r="F75" s="6" t="str">
+      <c r="F75" s="4" t="str">
         <f t="shared" si="21"/>
         <v>1|3|4</v>
       </c>
@@ -31046,21 +31058,21 @@
       </c>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1">
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>73</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="4">
         <v>2</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <f t="shared" ref="D76:G76" si="22">D26</f>
         <v>23</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="4">
         <f t="shared" si="22"/>
         <v>17029</v>
       </c>
-      <c r="F76" s="6" t="str">
+      <c r="F76" s="4" t="str">
         <f t="shared" si="22"/>
         <v>1|3|4</v>
       </c>
@@ -31070,21 +31082,21 @@
       </c>
     </row>
     <row r="77" spans="2:7" ht="15" customHeight="1">
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>74</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="4">
         <v>2</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <f t="shared" ref="D77:G77" si="23">D27</f>
         <v>24</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="4">
         <f t="shared" si="23"/>
         <v>18534</v>
       </c>
-      <c r="F77" s="6" t="str">
+      <c r="F77" s="4" t="str">
         <f t="shared" si="23"/>
         <v>1|3|4</v>
       </c>
@@ -31094,21 +31106,21 @@
       </c>
     </row>
     <row r="78" spans="2:7" ht="15" customHeight="1">
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>75</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="4">
         <v>2</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <f t="shared" ref="D78:G78" si="24">D28</f>
         <v>25</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="4">
         <f t="shared" si="24"/>
         <v>20102</v>
       </c>
-      <c r="F78" s="6" t="str">
+      <c r="F78" s="4" t="str">
         <f t="shared" si="24"/>
         <v>1|3|4</v>
       </c>
@@ -31118,21 +31130,21 @@
       </c>
     </row>
     <row r="79" spans="2:7" ht="15" customHeight="1">
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>76</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="4">
         <v>2</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="4">
         <f t="shared" ref="D79:G79" si="25">D29</f>
         <v>26</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="4">
         <f t="shared" si="25"/>
         <v>21734</v>
       </c>
-      <c r="F79" s="6" t="str">
+      <c r="F79" s="4" t="str">
         <f t="shared" si="25"/>
         <v>1|3|4</v>
       </c>
@@ -31142,21 +31154,21 @@
       </c>
     </row>
     <row r="80" spans="2:7" ht="15" customHeight="1">
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>77</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="4">
         <v>2</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <f t="shared" ref="D80:G80" si="26">D30</f>
         <v>27</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="4">
         <f t="shared" si="26"/>
         <v>23429</v>
       </c>
-      <c r="F80" s="6" t="str">
+      <c r="F80" s="4" t="str">
         <f t="shared" si="26"/>
         <v>1|3|4</v>
       </c>
@@ -31166,21 +31178,21 @@
       </c>
     </row>
     <row r="81" spans="2:7" ht="15" customHeight="1">
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>78</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>2</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <f t="shared" ref="D81:G81" si="27">D31</f>
         <v>28</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="4">
         <f t="shared" si="27"/>
         <v>25189</v>
       </c>
-      <c r="F81" s="6" t="str">
+      <c r="F81" s="4" t="str">
         <f t="shared" si="27"/>
         <v>1|3|4</v>
       </c>
@@ -31190,21 +31202,21 @@
       </c>
     </row>
     <row r="82" spans="2:7" ht="15" customHeight="1">
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>79</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>2</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <f t="shared" ref="D82:G82" si="28">D32</f>
         <v>29</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="4">
         <f t="shared" si="28"/>
         <v>27011</v>
       </c>
-      <c r="F82" s="6" t="str">
+      <c r="F82" s="4" t="str">
         <f t="shared" si="28"/>
         <v>1|3|4</v>
       </c>
@@ -31214,21 +31226,21 @@
       </c>
     </row>
     <row r="83" spans="2:7" ht="15" customHeight="1">
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>80</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>2</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <f t="shared" ref="D83:G83" si="29">D33</f>
         <v>30</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="4">
         <f t="shared" si="29"/>
         <v>28898</v>
       </c>
-      <c r="F83" s="6" t="str">
+      <c r="F83" s="4" t="str">
         <f t="shared" si="29"/>
         <v>1|3|4</v>
       </c>
@@ -31238,21 +31250,21 @@
       </c>
     </row>
     <row r="84" spans="2:7" ht="15" customHeight="1">
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>81</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>2</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <f t="shared" ref="D84:G84" si="30">D34</f>
         <v>31</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="4">
         <f t="shared" si="30"/>
         <v>30848</v>
       </c>
-      <c r="F84" s="6" t="str">
+      <c r="F84" s="4" t="str">
         <f t="shared" si="30"/>
         <v>1|3|4</v>
       </c>
@@ -31262,21 +31274,21 @@
       </c>
     </row>
     <row r="85" spans="2:7" ht="15" customHeight="1">
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>82</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="4">
         <v>2</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <f t="shared" ref="D85:G85" si="31">D35</f>
         <v>32</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="4">
         <f t="shared" si="31"/>
         <v>32862</v>
       </c>
-      <c r="F85" s="6" t="str">
+      <c r="F85" s="4" t="str">
         <f t="shared" si="31"/>
         <v>1|3|4</v>
       </c>
@@ -31286,21 +31298,21 @@
       </c>
     </row>
     <row r="86" spans="2:7" ht="15" customHeight="1">
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>83</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="4">
         <v>2</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <f t="shared" ref="D86:G86" si="32">D36</f>
         <v>33</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="4">
         <f t="shared" si="32"/>
         <v>34940</v>
       </c>
-      <c r="F86" s="6" t="str">
+      <c r="F86" s="4" t="str">
         <f t="shared" si="32"/>
         <v>1|3|4</v>
       </c>
@@ -31310,21 +31322,21 @@
       </c>
     </row>
     <row r="87" spans="2:7" ht="15" customHeight="1">
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>84</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="4">
         <v>2</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <f t="shared" ref="D87:G87" si="33">D37</f>
         <v>34</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="4">
         <f t="shared" si="33"/>
         <v>37081</v>
       </c>
-      <c r="F87" s="6" t="str">
+      <c r="F87" s="4" t="str">
         <f t="shared" si="33"/>
         <v>1|3|4</v>
       </c>
@@ -31334,21 +31346,21 @@
       </c>
     </row>
     <row r="88" spans="2:7" ht="15" customHeight="1">
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>85</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="4">
         <v>2</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="4">
         <f t="shared" ref="D88:G88" si="34">D38</f>
         <v>35</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="4">
         <f t="shared" si="34"/>
         <v>39286</v>
       </c>
-      <c r="F88" s="6" t="str">
+      <c r="F88" s="4" t="str">
         <f t="shared" si="34"/>
         <v>1|3|4</v>
       </c>
@@ -31358,21 +31370,21 @@
       </c>
     </row>
     <row r="89" spans="2:7" ht="15" customHeight="1">
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>86</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="4">
         <v>2</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="4">
         <f t="shared" ref="D89:G89" si="35">D39</f>
         <v>36</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="4">
         <f t="shared" si="35"/>
         <v>41554</v>
       </c>
-      <c r="F89" s="6" t="str">
+      <c r="F89" s="4" t="str">
         <f t="shared" si="35"/>
         <v>1|3|4</v>
       </c>
@@ -31382,21 +31394,21 @@
       </c>
     </row>
     <row r="90" spans="2:7" ht="15" customHeight="1">
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>87</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="4">
         <v>2</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="4">
         <f t="shared" ref="D90:G90" si="36">D40</f>
         <v>37</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="4">
         <f t="shared" si="36"/>
         <v>43887</v>
       </c>
-      <c r="F90" s="6" t="str">
+      <c r="F90" s="4" t="str">
         <f t="shared" si="36"/>
         <v>1|3|4</v>
       </c>
@@ -31406,21 +31418,21 @@
       </c>
     </row>
     <row r="91" spans="2:7" ht="15" customHeight="1">
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>88</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="4">
         <v>2</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="4">
         <f t="shared" ref="D91:G91" si="37">D41</f>
         <v>38</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="4">
         <f t="shared" si="37"/>
         <v>46282</v>
       </c>
-      <c r="F91" s="6" t="str">
+      <c r="F91" s="4" t="str">
         <f t="shared" si="37"/>
         <v>1|3|4</v>
       </c>
@@ -31430,21 +31442,21 @@
       </c>
     </row>
     <row r="92" spans="2:7" ht="15" customHeight="1">
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>89</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="4">
         <v>2</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="4">
         <f t="shared" ref="D92:G92" si="38">D42</f>
         <v>39</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="4">
         <f t="shared" si="38"/>
         <v>48742</v>
       </c>
-      <c r="F92" s="6" t="str">
+      <c r="F92" s="4" t="str">
         <f t="shared" si="38"/>
         <v>1|3|4</v>
       </c>
@@ -31454,21 +31466,21 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="15" customHeight="1">
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>90</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="4">
         <v>2</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="4">
         <f t="shared" ref="D93:G93" si="39">D43</f>
         <v>40</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="4">
         <f t="shared" si="39"/>
         <v>51265</v>
       </c>
-      <c r="F93" s="6" t="str">
+      <c r="F93" s="4" t="str">
         <f t="shared" si="39"/>
         <v>1|3|4</v>
       </c>
@@ -31478,21 +31490,21 @@
       </c>
     </row>
     <row r="94" spans="2:7" ht="15" customHeight="1">
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>91</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="4">
         <v>2</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="4">
         <f t="shared" ref="D94:G94" si="40">D44</f>
         <v>41</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="4">
         <f t="shared" si="40"/>
         <v>53852</v>
       </c>
-      <c r="F94" s="6" t="str">
+      <c r="F94" s="4" t="str">
         <f t="shared" si="40"/>
         <v>1|3|4</v>
       </c>
@@ -31502,21 +31514,21 @@
       </c>
     </row>
     <row r="95" spans="2:7" ht="15" customHeight="1">
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>92</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>2</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="4">
         <f t="shared" ref="D95:G95" si="41">D45</f>
         <v>42</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="4">
         <f t="shared" si="41"/>
         <v>56503</v>
       </c>
-      <c r="F95" s="6" t="str">
+      <c r="F95" s="4" t="str">
         <f t="shared" si="41"/>
         <v>1|3|4</v>
       </c>
@@ -31526,21 +31538,21 @@
       </c>
     </row>
     <row r="96" spans="2:7" ht="15" customHeight="1">
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>93</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>2</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="4">
         <f t="shared" ref="D96:G96" si="42">D46</f>
         <v>43</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="4">
         <f t="shared" si="42"/>
         <v>59217</v>
       </c>
-      <c r="F96" s="6" t="str">
+      <c r="F96" s="4" t="str">
         <f t="shared" si="42"/>
         <v>1|3|4</v>
       </c>
@@ -31550,21 +31562,21 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="15" customHeight="1">
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>94</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>2</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="4">
         <f t="shared" ref="D97:G97" si="43">D47</f>
         <v>44</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="4">
         <f t="shared" si="43"/>
         <v>61995</v>
       </c>
-      <c r="F97" s="6" t="str">
+      <c r="F97" s="4" t="str">
         <f t="shared" si="43"/>
         <v>1|3|4</v>
       </c>
@@ -31574,21 +31586,21 @@
       </c>
     </row>
     <row r="98" spans="2:7" ht="15" customHeight="1">
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>95</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>2</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="4">
         <f t="shared" ref="D98:G98" si="44">D48</f>
         <v>45</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="4">
         <f t="shared" si="44"/>
         <v>64837</v>
       </c>
-      <c r="F98" s="6" t="str">
+      <c r="F98" s="4" t="str">
         <f t="shared" si="44"/>
         <v>1|3|4</v>
       </c>
@@ -31598,21 +31610,21 @@
       </c>
     </row>
     <row r="99" spans="2:7" ht="15" customHeight="1">
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>96</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>2</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="4">
         <f t="shared" ref="D99:G99" si="45">D49</f>
         <v>46</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="4">
         <f t="shared" si="45"/>
         <v>67742</v>
       </c>
-      <c r="F99" s="6" t="str">
+      <c r="F99" s="4" t="str">
         <f t="shared" si="45"/>
         <v>1|3|4</v>
       </c>
@@ -31622,21 +31634,21 @@
       </c>
     </row>
     <row r="100" spans="2:7" ht="15" customHeight="1">
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>97</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>2</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="4">
         <f t="shared" ref="D100:G100" si="46">D50</f>
         <v>47</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="4">
         <f t="shared" si="46"/>
         <v>70711</v>
       </c>
-      <c r="F100" s="6" t="str">
+      <c r="F100" s="4" t="str">
         <f t="shared" si="46"/>
         <v>1|3|4</v>
       </c>
@@ -31646,21 +31658,21 @@
       </c>
     </row>
     <row r="101" spans="2:7" ht="15" customHeight="1">
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>98</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>2</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="4">
         <f t="shared" ref="D101:G101" si="47">D51</f>
         <v>48</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="4">
         <f t="shared" si="47"/>
         <v>73744</v>
       </c>
-      <c r="F101" s="6" t="str">
+      <c r="F101" s="4" t="str">
         <f t="shared" si="47"/>
         <v>1|3|4</v>
       </c>
@@ -31670,21 +31682,21 @@
       </c>
     </row>
     <row r="102" spans="2:7" ht="15" customHeight="1">
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <v>99</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="4">
         <v>2</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="4">
         <f t="shared" ref="D102:G102" si="48">D52</f>
         <v>49</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="4">
         <f t="shared" si="48"/>
         <v>76840</v>
       </c>
-      <c r="F102" s="6" t="str">
+      <c r="F102" s="4" t="str">
         <f t="shared" si="48"/>
         <v>1|3|4</v>
       </c>
@@ -31694,21 +31706,21 @@
       </c>
     </row>
     <row r="103" spans="2:7" ht="15" customHeight="1">
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>100</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="4">
         <v>2</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="4">
         <f t="shared" ref="D103:G103" si="49">D53</f>
         <v>50</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="4">
         <f t="shared" si="49"/>
         <v>80000</v>
       </c>
-      <c r="F103" s="6" t="str">
+      <c r="F103" s="4" t="str">
         <f t="shared" si="49"/>
         <v>1|3|4</v>
       </c>
@@ -31718,21 +31730,21 @@
       </c>
     </row>
     <row r="104" spans="2:7" ht="15" customHeight="1">
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <v>101</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="4">
         <v>3</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="4">
         <f t="shared" ref="D104:G104" si="50">D54</f>
         <v>1</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="4">
         <f t="shared" si="50"/>
         <v>50</v>
       </c>
-      <c r="F104" s="6" t="str">
+      <c r="F104" s="4" t="str">
         <f t="shared" si="50"/>
         <v>1|3|4</v>
       </c>
@@ -31742,21 +31754,21 @@
       </c>
     </row>
     <row r="105" spans="2:7" ht="15" customHeight="1">
-      <c r="B105" s="7">
+      <c r="B105" s="6">
         <v>102</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="4">
         <v>3</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="4">
         <f t="shared" ref="D105:G105" si="51">D55</f>
         <v>2</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="4">
         <f t="shared" si="51"/>
         <v>144</v>
       </c>
-      <c r="F105" s="6" t="str">
+      <c r="F105" s="4" t="str">
         <f t="shared" si="51"/>
         <v>1|3|4</v>
       </c>
@@ -31766,21 +31778,21 @@
       </c>
     </row>
     <row r="106" spans="2:7" ht="15" customHeight="1">
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <v>103</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="4">
         <v>3</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="4">
         <f t="shared" ref="D106:G106" si="52">D56</f>
         <v>3</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="4">
         <f t="shared" si="52"/>
         <v>311</v>
       </c>
-      <c r="F106" s="6" t="str">
+      <c r="F106" s="4" t="str">
         <f t="shared" si="52"/>
         <v>1|3|4</v>
       </c>
@@ -31790,21 +31802,21 @@
       </c>
     </row>
     <row r="107" spans="2:7" ht="15" customHeight="1">
-      <c r="B107" s="7">
+      <c r="B107" s="6">
         <v>104</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="4">
         <v>3</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="4">
         <f t="shared" ref="D107:G107" si="53">D57</f>
         <v>4</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="4">
         <f t="shared" si="53"/>
         <v>542</v>
       </c>
-      <c r="F107" s="6" t="str">
+      <c r="F107" s="4" t="str">
         <f t="shared" si="53"/>
         <v>1|3|4</v>
       </c>
@@ -31814,21 +31826,21 @@
       </c>
     </row>
     <row r="108" spans="2:7" ht="15" customHeight="1">
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <v>105</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="4">
         <v>3</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="4">
         <f t="shared" ref="D108:G108" si="54">D58</f>
         <v>5</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="4">
         <f t="shared" si="54"/>
         <v>837</v>
       </c>
-      <c r="F108" s="6" t="str">
+      <c r="F108" s="4" t="str">
         <f t="shared" si="54"/>
         <v>1|3|4</v>
       </c>
@@ -31838,21 +31850,21 @@
       </c>
     </row>
     <row r="109" spans="2:7" ht="15" customHeight="1">
-      <c r="B109" s="7">
+      <c r="B109" s="6">
         <v>106</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="4">
         <v>3</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="4">
         <f t="shared" ref="D109:G109" si="55">D59</f>
         <v>6</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="4">
         <f t="shared" si="55"/>
         <v>1195</v>
       </c>
-      <c r="F109" s="6" t="str">
+      <c r="F109" s="4" t="str">
         <f t="shared" si="55"/>
         <v>1|3|4</v>
       </c>
@@ -31862,21 +31874,21 @@
       </c>
     </row>
     <row r="110" spans="2:7" ht="15" customHeight="1">
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <v>107</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="4">
         <v>3</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="4">
         <f t="shared" ref="D110:G110" si="56">D60</f>
         <v>7</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="4">
         <f t="shared" si="56"/>
         <v>1617</v>
       </c>
-      <c r="F110" s="6" t="str">
+      <c r="F110" s="4" t="str">
         <f t="shared" si="56"/>
         <v>1|3|4</v>
       </c>
@@ -31886,21 +31898,21 @@
       </c>
     </row>
     <row r="111" spans="2:7" ht="15" customHeight="1">
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <v>108</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="4">
         <v>3</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="4">
         <f t="shared" ref="D111:G111" si="57">D61</f>
         <v>8</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="4">
         <f t="shared" si="57"/>
         <v>2103</v>
       </c>
-      <c r="F111" s="6" t="str">
+      <c r="F111" s="4" t="str">
         <f t="shared" si="57"/>
         <v>1|3|4</v>
       </c>
@@ -31910,21 +31922,21 @@
       </c>
     </row>
     <row r="112" spans="2:7" ht="15" customHeight="1">
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>109</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="4">
         <v>3</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="4">
         <f t="shared" ref="D112:G112" si="58">D62</f>
         <v>9</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="4">
         <f t="shared" si="58"/>
         <v>2652</v>
       </c>
-      <c r="F112" s="6" t="str">
+      <c r="F112" s="4" t="str">
         <f t="shared" si="58"/>
         <v>1|3|4</v>
       </c>
@@ -31934,21 +31946,21 @@
       </c>
     </row>
     <row r="113" spans="2:7" ht="15" customHeight="1">
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>110</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="4">
         <v>3</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="4">
         <f t="shared" ref="D113:G113" si="59">D63</f>
         <v>10</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="4">
         <f t="shared" si="59"/>
         <v>3265</v>
       </c>
-      <c r="F113" s="6" t="str">
+      <c r="F113" s="4" t="str">
         <f t="shared" si="59"/>
         <v>1|3|4</v>
       </c>
@@ -31958,21 +31970,21 @@
       </c>
     </row>
     <row r="114" spans="2:7" ht="15" customHeight="1">
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>111</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="4">
         <v>3</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="4">
         <f t="shared" ref="D114:G114" si="60">D64</f>
         <v>11</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="4">
         <f t="shared" si="60"/>
         <v>3942</v>
       </c>
-      <c r="F114" s="6" t="str">
+      <c r="F114" s="4" t="str">
         <f t="shared" si="60"/>
         <v>1|3|4</v>
       </c>
@@ -31982,21 +31994,21 @@
       </c>
     </row>
     <row r="115" spans="2:7" ht="15" customHeight="1">
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>112</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="4">
         <v>3</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="4">
         <f t="shared" ref="D115:G115" si="61">D65</f>
         <v>12</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="4">
         <f t="shared" si="61"/>
         <v>4682</v>
       </c>
-      <c r="F115" s="6" t="str">
+      <c r="F115" s="4" t="str">
         <f t="shared" si="61"/>
         <v>1|3|4</v>
       </c>
@@ -32006,21 +32018,21 @@
       </c>
     </row>
     <row r="116" spans="2:7" ht="15" customHeight="1">
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <v>113</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="4">
         <v>3</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="4">
         <f t="shared" ref="D116:G116" si="62">D66</f>
         <v>13</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="4">
         <f t="shared" si="62"/>
         <v>5487</v>
       </c>
-      <c r="F116" s="6" t="str">
+      <c r="F116" s="4" t="str">
         <f t="shared" si="62"/>
         <v>1|3|4</v>
       </c>
@@ -32030,21 +32042,21 @@
       </c>
     </row>
     <row r="117" spans="2:7" ht="15" customHeight="1">
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <v>114</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="4">
         <v>3</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="4">
         <f t="shared" ref="D117:G117" si="63">D67</f>
         <v>14</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="4">
         <f t="shared" si="63"/>
         <v>6354</v>
       </c>
-      <c r="F117" s="6" t="str">
+      <c r="F117" s="4" t="str">
         <f t="shared" si="63"/>
         <v>1|3|4</v>
       </c>
@@ -32054,21 +32066,21 @@
       </c>
     </row>
     <row r="118" spans="2:7" ht="15" customHeight="1">
-      <c r="B118" s="7">
+      <c r="B118" s="6">
         <v>115</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="4">
         <v>3</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="4">
         <f t="shared" ref="D118:G118" si="64">D68</f>
         <v>15</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="4">
         <f t="shared" si="64"/>
         <v>7286</v>
       </c>
-      <c r="F118" s="6" t="str">
+      <c r="F118" s="4" t="str">
         <f t="shared" si="64"/>
         <v>1|3|4</v>
       </c>
@@ -32078,21 +32090,21 @@
       </c>
     </row>
     <row r="119" spans="2:7" ht="15" customHeight="1">
-      <c r="B119" s="7">
+      <c r="B119" s="6">
         <v>116</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="4">
         <v>3</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="4">
         <f t="shared" ref="D119:G119" si="65">D69</f>
         <v>16</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="4">
         <f t="shared" si="65"/>
         <v>8281</v>
       </c>
-      <c r="F119" s="6" t="str">
+      <c r="F119" s="4" t="str">
         <f t="shared" si="65"/>
         <v>1|3|4</v>
       </c>
@@ -32102,21 +32114,21 @@
       </c>
     </row>
     <row r="120" spans="2:7" ht="15" customHeight="1">
-      <c r="B120" s="7">
+      <c r="B120" s="6">
         <v>117</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="4">
         <v>3</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="4">
         <f t="shared" ref="D120:G120" si="66">D70</f>
         <v>17</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="4">
         <f t="shared" si="66"/>
         <v>9340</v>
       </c>
-      <c r="F120" s="6" t="str">
+      <c r="F120" s="4" t="str">
         <f t="shared" si="66"/>
         <v>1|3|4</v>
       </c>
@@ -32126,21 +32138,21 @@
       </c>
     </row>
     <row r="121" spans="2:7" ht="15" customHeight="1">
-      <c r="B121" s="7">
+      <c r="B121" s="6">
         <v>118</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="4">
         <v>3</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="4">
         <f t="shared" ref="D121:G121" si="67">D71</f>
         <v>18</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="4">
         <f t="shared" si="67"/>
         <v>10462</v>
       </c>
-      <c r="F121" s="6" t="str">
+      <c r="F121" s="4" t="str">
         <f t="shared" si="67"/>
         <v>1|3|4</v>
       </c>
@@ -32150,21 +32162,21 @@
       </c>
     </row>
     <row r="122" spans="2:7" ht="15" customHeight="1">
-      <c r="B122" s="7">
+      <c r="B122" s="6">
         <v>119</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="4">
         <v>3</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="4">
         <f t="shared" ref="D122:G122" si="68">D72</f>
         <v>19</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="4">
         <f t="shared" si="68"/>
         <v>11648</v>
       </c>
-      <c r="F122" s="6" t="str">
+      <c r="F122" s="4" t="str">
         <f t="shared" si="68"/>
         <v>1|3|4</v>
       </c>
@@ -32174,21 +32186,21 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="15" customHeight="1">
-      <c r="B123" s="7">
+      <c r="B123" s="6">
         <v>120</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="4">
         <v>3</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="4">
         <f t="shared" ref="D123:G123" si="69">D73</f>
         <v>20</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="4">
         <f t="shared" si="69"/>
         <v>12898</v>
       </c>
-      <c r="F123" s="6" t="str">
+      <c r="F123" s="4" t="str">
         <f t="shared" si="69"/>
         <v>1|3|4</v>
       </c>
@@ -32198,21 +32210,21 @@
       </c>
     </row>
     <row r="124" spans="2:7" ht="15" customHeight="1">
-      <c r="B124" s="7">
+      <c r="B124" s="6">
         <v>121</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="4">
         <v>3</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="4">
         <f t="shared" ref="D124:G124" si="70">D74</f>
         <v>21</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="4">
         <f t="shared" si="70"/>
         <v>14211</v>
       </c>
-      <c r="F124" s="6" t="str">
+      <c r="F124" s="4" t="str">
         <f t="shared" si="70"/>
         <v>1|3|4</v>
       </c>
@@ -32222,21 +32234,21 @@
       </c>
     </row>
     <row r="125" spans="2:7" ht="15" customHeight="1">
-      <c r="B125" s="7">
+      <c r="B125" s="6">
         <v>122</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="4">
         <v>3</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="4">
         <f t="shared" ref="D125:G125" si="71">D75</f>
         <v>22</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="4">
         <f t="shared" si="71"/>
         <v>15589</v>
       </c>
-      <c r="F125" s="6" t="str">
+      <c r="F125" s="4" t="str">
         <f t="shared" si="71"/>
         <v>1|3|4</v>
       </c>
@@ -32246,21 +32258,21 @@
       </c>
     </row>
     <row r="126" spans="2:7" ht="15" customHeight="1">
-      <c r="B126" s="7">
+      <c r="B126" s="6">
         <v>123</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="4">
         <v>3</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="4">
         <f t="shared" ref="D126:G126" si="72">D76</f>
         <v>23</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="4">
         <f t="shared" si="72"/>
         <v>17029</v>
       </c>
-      <c r="F126" s="6" t="str">
+      <c r="F126" s="4" t="str">
         <f t="shared" si="72"/>
         <v>1|3|4</v>
       </c>
@@ -32270,21 +32282,21 @@
       </c>
     </row>
     <row r="127" spans="2:7" ht="15" customHeight="1">
-      <c r="B127" s="7">
+      <c r="B127" s="6">
         <v>124</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="4">
         <v>3</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="4">
         <f t="shared" ref="D127:G127" si="73">D77</f>
         <v>24</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="4">
         <f t="shared" si="73"/>
         <v>18534</v>
       </c>
-      <c r="F127" s="6" t="str">
+      <c r="F127" s="4" t="str">
         <f t="shared" si="73"/>
         <v>1|3|4</v>
       </c>
@@ -32294,21 +32306,21 @@
       </c>
     </row>
     <row r="128" spans="2:7" ht="15" customHeight="1">
-      <c r="B128" s="7">
+      <c r="B128" s="6">
         <v>125</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="4">
         <v>3</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="4">
         <f t="shared" ref="D128:G128" si="74">D78</f>
         <v>25</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="4">
         <f t="shared" si="74"/>
         <v>20102</v>
       </c>
-      <c r="F128" s="6" t="str">
+      <c r="F128" s="4" t="str">
         <f t="shared" si="74"/>
         <v>1|3|4</v>
       </c>
@@ -32318,21 +32330,21 @@
       </c>
     </row>
     <row r="129" spans="2:7" ht="15" customHeight="1">
-      <c r="B129" s="7">
+      <c r="B129" s="6">
         <v>126</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="4">
         <v>3</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="4">
         <f t="shared" ref="D129:G129" si="75">D79</f>
         <v>26</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="4">
         <f t="shared" si="75"/>
         <v>21734</v>
       </c>
-      <c r="F129" s="6" t="str">
+      <c r="F129" s="4" t="str">
         <f t="shared" si="75"/>
         <v>1|3|4</v>
       </c>
@@ -32342,21 +32354,21 @@
       </c>
     </row>
     <row r="130" spans="2:7" ht="15" customHeight="1">
-      <c r="B130" s="7">
+      <c r="B130" s="6">
         <v>127</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="4">
         <v>3</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="4">
         <f t="shared" ref="D130:G130" si="76">D80</f>
         <v>27</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="4">
         <f t="shared" si="76"/>
         <v>23429</v>
       </c>
-      <c r="F130" s="6" t="str">
+      <c r="F130" s="4" t="str">
         <f t="shared" si="76"/>
         <v>1|3|4</v>
       </c>
@@ -32366,21 +32378,21 @@
       </c>
     </row>
     <row r="131" spans="2:7" ht="15" customHeight="1">
-      <c r="B131" s="7">
+      <c r="B131" s="6">
         <v>128</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="4">
         <v>3</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="4">
         <f t="shared" ref="D131:G131" si="77">D81</f>
         <v>28</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="4">
         <f t="shared" si="77"/>
         <v>25189</v>
       </c>
-      <c r="F131" s="6" t="str">
+      <c r="F131" s="4" t="str">
         <f t="shared" si="77"/>
         <v>1|3|4</v>
       </c>
@@ -32390,21 +32402,21 @@
       </c>
     </row>
     <row r="132" spans="2:7" ht="15" customHeight="1">
-      <c r="B132" s="7">
+      <c r="B132" s="6">
         <v>129</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="4">
         <v>3</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="4">
         <f t="shared" ref="D132:G132" si="78">D82</f>
         <v>29</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="4">
         <f t="shared" si="78"/>
         <v>27011</v>
       </c>
-      <c r="F132" s="6" t="str">
+      <c r="F132" s="4" t="str">
         <f t="shared" si="78"/>
         <v>1|3|4</v>
       </c>
@@ -32414,21 +32426,21 @@
       </c>
     </row>
     <row r="133" spans="2:7" ht="15" customHeight="1">
-      <c r="B133" s="7">
+      <c r="B133" s="6">
         <v>130</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="4">
         <v>3</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="4">
         <f t="shared" ref="D133:G133" si="79">D83</f>
         <v>30</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="4">
         <f t="shared" si="79"/>
         <v>28898</v>
       </c>
-      <c r="F133" s="6" t="str">
+      <c r="F133" s="4" t="str">
         <f t="shared" si="79"/>
         <v>1|3|4</v>
       </c>
@@ -32438,21 +32450,21 @@
       </c>
     </row>
     <row r="134" spans="2:7" ht="15" customHeight="1">
-      <c r="B134" s="7">
+      <c r="B134" s="6">
         <v>131</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="4">
         <v>3</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="4">
         <f t="shared" ref="D134:G134" si="80">D84</f>
         <v>31</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="4">
         <f t="shared" si="80"/>
         <v>30848</v>
       </c>
-      <c r="F134" s="6" t="str">
+      <c r="F134" s="4" t="str">
         <f t="shared" si="80"/>
         <v>1|3|4</v>
       </c>
@@ -32462,21 +32474,21 @@
       </c>
     </row>
     <row r="135" spans="2:7" ht="15" customHeight="1">
-      <c r="B135" s="7">
+      <c r="B135" s="6">
         <v>132</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="4">
         <v>3</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="4">
         <f t="shared" ref="D135:G135" si="81">D85</f>
         <v>32</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="4">
         <f t="shared" si="81"/>
         <v>32862</v>
       </c>
-      <c r="F135" s="6" t="str">
+      <c r="F135" s="4" t="str">
         <f t="shared" si="81"/>
         <v>1|3|4</v>
       </c>
@@ -32486,21 +32498,21 @@
       </c>
     </row>
     <row r="136" spans="2:7" ht="15" customHeight="1">
-      <c r="B136" s="7">
+      <c r="B136" s="6">
         <v>133</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="4">
         <v>3</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="4">
         <f t="shared" ref="D136:G136" si="82">D86</f>
         <v>33</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="4">
         <f t="shared" si="82"/>
         <v>34940</v>
       </c>
-      <c r="F136" s="6" t="str">
+      <c r="F136" s="4" t="str">
         <f t="shared" si="82"/>
         <v>1|3|4</v>
       </c>
@@ -32510,21 +32522,21 @@
       </c>
     </row>
     <row r="137" spans="2:7" ht="15" customHeight="1">
-      <c r="B137" s="7">
+      <c r="B137" s="6">
         <v>134</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="4">
         <v>3</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="4">
         <f t="shared" ref="D137:G137" si="83">D87</f>
         <v>34</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="4">
         <f t="shared" si="83"/>
         <v>37081</v>
       </c>
-      <c r="F137" s="6" t="str">
+      <c r="F137" s="4" t="str">
         <f t="shared" si="83"/>
         <v>1|3|4</v>
       </c>
@@ -32534,21 +32546,21 @@
       </c>
     </row>
     <row r="138" spans="2:7" ht="15" customHeight="1">
-      <c r="B138" s="7">
+      <c r="B138" s="6">
         <v>135</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="4">
         <v>3</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="4">
         <f t="shared" ref="D138:G138" si="84">D88</f>
         <v>35</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="4">
         <f t="shared" si="84"/>
         <v>39286</v>
       </c>
-      <c r="F138" s="6" t="str">
+      <c r="F138" s="4" t="str">
         <f t="shared" si="84"/>
         <v>1|3|4</v>
       </c>
@@ -32558,21 +32570,21 @@
       </c>
     </row>
     <row r="139" spans="2:7" ht="15" customHeight="1">
-      <c r="B139" s="7">
+      <c r="B139" s="6">
         <v>136</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="4">
         <v>3</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="4">
         <f t="shared" ref="D139:G139" si="85">D89</f>
         <v>36</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="4">
         <f t="shared" si="85"/>
         <v>41554</v>
       </c>
-      <c r="F139" s="6" t="str">
+      <c r="F139" s="4" t="str">
         <f t="shared" si="85"/>
         <v>1|3|4</v>
       </c>
@@ -32582,21 +32594,21 @@
       </c>
     </row>
     <row r="140" spans="2:7" ht="15" customHeight="1">
-      <c r="B140" s="7">
+      <c r="B140" s="6">
         <v>137</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="4">
         <v>3</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="4">
         <f t="shared" ref="D140:G140" si="86">D90</f>
         <v>37</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="4">
         <f t="shared" si="86"/>
         <v>43887</v>
       </c>
-      <c r="F140" s="6" t="str">
+      <c r="F140" s="4" t="str">
         <f t="shared" si="86"/>
         <v>1|3|4</v>
       </c>
@@ -32606,21 +32618,21 @@
       </c>
     </row>
     <row r="141" spans="2:7" ht="15" customHeight="1">
-      <c r="B141" s="7">
+      <c r="B141" s="6">
         <v>138</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="4">
         <v>3</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="4">
         <f t="shared" ref="D141:G141" si="87">D91</f>
         <v>38</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="4">
         <f t="shared" si="87"/>
         <v>46282</v>
       </c>
-      <c r="F141" s="6" t="str">
+      <c r="F141" s="4" t="str">
         <f t="shared" si="87"/>
         <v>1|3|4</v>
       </c>
@@ -32630,21 +32642,21 @@
       </c>
     </row>
     <row r="142" spans="2:7" ht="15" customHeight="1">
-      <c r="B142" s="7">
+      <c r="B142" s="6">
         <v>139</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="4">
         <v>3</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D142" s="4">
         <f t="shared" ref="D142:G142" si="88">D92</f>
         <v>39</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="4">
         <f t="shared" si="88"/>
         <v>48742</v>
       </c>
-      <c r="F142" s="6" t="str">
+      <c r="F142" s="4" t="str">
         <f t="shared" si="88"/>
         <v>1|3|4</v>
       </c>
@@ -32654,21 +32666,21 @@
       </c>
     </row>
     <row r="143" spans="2:7" ht="15" customHeight="1">
-      <c r="B143" s="7">
+      <c r="B143" s="6">
         <v>140</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="4">
         <v>3</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D143" s="4">
         <f t="shared" ref="D143:G143" si="89">D93</f>
         <v>40</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="4">
         <f t="shared" si="89"/>
         <v>51265</v>
       </c>
-      <c r="F143" s="6" t="str">
+      <c r="F143" s="4" t="str">
         <f t="shared" si="89"/>
         <v>1|3|4</v>
       </c>
@@ -32678,21 +32690,21 @@
       </c>
     </row>
     <row r="144" spans="2:7" ht="15" customHeight="1">
-      <c r="B144" s="7">
+      <c r="B144" s="6">
         <v>141</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="4">
         <v>3</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D144" s="4">
         <f t="shared" ref="D144:G144" si="90">D94</f>
         <v>41</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="4">
         <f t="shared" si="90"/>
         <v>53852</v>
       </c>
-      <c r="F144" s="6" t="str">
+      <c r="F144" s="4" t="str">
         <f t="shared" si="90"/>
         <v>1|3|4</v>
       </c>
@@ -32702,21 +32714,21 @@
       </c>
     </row>
     <row r="145" spans="2:7" ht="15" customHeight="1">
-      <c r="B145" s="7">
+      <c r="B145" s="6">
         <v>142</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="4">
         <v>3</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="4">
         <f t="shared" ref="D145:G145" si="91">D95</f>
         <v>42</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="4">
         <f t="shared" si="91"/>
         <v>56503</v>
       </c>
-      <c r="F145" s="6" t="str">
+      <c r="F145" s="4" t="str">
         <f t="shared" si="91"/>
         <v>1|3|4</v>
       </c>
@@ -32726,21 +32738,21 @@
       </c>
     </row>
     <row r="146" spans="2:7" ht="15" customHeight="1">
-      <c r="B146" s="7">
+      <c r="B146" s="6">
         <v>143</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="4">
         <v>3</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="4">
         <f t="shared" ref="D146:G146" si="92">D96</f>
         <v>43</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="4">
         <f t="shared" si="92"/>
         <v>59217</v>
       </c>
-      <c r="F146" s="6" t="str">
+      <c r="F146" s="4" t="str">
         <f t="shared" si="92"/>
         <v>1|3|4</v>
       </c>
@@ -32750,21 +32762,21 @@
       </c>
     </row>
     <row r="147" spans="2:7" ht="15" customHeight="1">
-      <c r="B147" s="7">
+      <c r="B147" s="6">
         <v>144</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="4">
         <v>3</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="4">
         <f t="shared" ref="D147:G147" si="93">D97</f>
         <v>44</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="4">
         <f t="shared" si="93"/>
         <v>61995</v>
       </c>
-      <c r="F147" s="6" t="str">
+      <c r="F147" s="4" t="str">
         <f t="shared" si="93"/>
         <v>1|3|4</v>
       </c>
@@ -32774,21 +32786,21 @@
       </c>
     </row>
     <row r="148" spans="2:7" ht="15" customHeight="1">
-      <c r="B148" s="7">
+      <c r="B148" s="6">
         <v>145</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="4">
         <v>3</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="4">
         <f t="shared" ref="D148:G148" si="94">D98</f>
         <v>45</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="4">
         <f t="shared" si="94"/>
         <v>64837</v>
       </c>
-      <c r="F148" s="6" t="str">
+      <c r="F148" s="4" t="str">
         <f t="shared" si="94"/>
         <v>1|3|4</v>
       </c>
@@ -32798,21 +32810,21 @@
       </c>
     </row>
     <row r="149" spans="2:7" ht="15" customHeight="1">
-      <c r="B149" s="7">
+      <c r="B149" s="6">
         <v>146</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="4">
         <v>3</v>
       </c>
-      <c r="D149" s="6">
+      <c r="D149" s="4">
         <f t="shared" ref="D149:G149" si="95">D99</f>
         <v>46</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="4">
         <f t="shared" si="95"/>
         <v>67742</v>
       </c>
-      <c r="F149" s="6" t="str">
+      <c r="F149" s="4" t="str">
         <f t="shared" si="95"/>
         <v>1|3|4</v>
       </c>
@@ -32822,21 +32834,21 @@
       </c>
     </row>
     <row r="150" spans="2:7" ht="15" customHeight="1">
-      <c r="B150" s="7">
+      <c r="B150" s="6">
         <v>147</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="4">
         <v>3</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="4">
         <f t="shared" ref="D150:G150" si="96">D100</f>
         <v>47</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="4">
         <f t="shared" si="96"/>
         <v>70711</v>
       </c>
-      <c r="F150" s="6" t="str">
+      <c r="F150" s="4" t="str">
         <f t="shared" si="96"/>
         <v>1|3|4</v>
       </c>
@@ -32846,21 +32858,21 @@
       </c>
     </row>
     <row r="151" spans="2:7" ht="15" customHeight="1">
-      <c r="B151" s="7">
+      <c r="B151" s="6">
         <v>148</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="4">
         <v>3</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="4">
         <f t="shared" ref="D151:G151" si="97">D101</f>
         <v>48</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="4">
         <f t="shared" si="97"/>
         <v>73744</v>
       </c>
-      <c r="F151" s="6" t="str">
+      <c r="F151" s="4" t="str">
         <f t="shared" si="97"/>
         <v>1|3|4</v>
       </c>
@@ -32870,21 +32882,21 @@
       </c>
     </row>
     <row r="152" spans="2:7" ht="15" customHeight="1">
-      <c r="B152" s="7">
+      <c r="B152" s="6">
         <v>149</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="4">
         <v>3</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="4">
         <f t="shared" ref="D152:G152" si="98">D102</f>
         <v>49</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="4">
         <f t="shared" si="98"/>
         <v>76840</v>
       </c>
-      <c r="F152" s="6" t="str">
+      <c r="F152" s="4" t="str">
         <f t="shared" si="98"/>
         <v>1|3|4</v>
       </c>
@@ -32894,21 +32906,21 @@
       </c>
     </row>
     <row r="153" spans="2:7" ht="15" customHeight="1">
-      <c r="B153" s="7">
+      <c r="B153" s="6">
         <v>150</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="4">
         <v>3</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="4">
         <f t="shared" ref="D153:G153" si="99">D103</f>
         <v>50</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="4">
         <f t="shared" si="99"/>
         <v>80000</v>
       </c>
-      <c r="F153" s="6" t="str">
+      <c r="F153" s="4" t="str">
         <f t="shared" si="99"/>
         <v>1|3|4</v>
       </c>
@@ -32918,21 +32930,21 @@
       </c>
     </row>
     <row r="154" spans="2:7" ht="15" customHeight="1">
-      <c r="B154" s="8">
+      <c r="B154" s="7">
         <v>151</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="4">
         <v>4</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="4">
         <f t="shared" ref="D154:G154" si="100">D104</f>
         <v>1</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="4">
         <f t="shared" si="100"/>
         <v>50</v>
       </c>
-      <c r="F154" s="6" t="str">
+      <c r="F154" s="4" t="str">
         <f t="shared" si="100"/>
         <v>1|3|4</v>
       </c>
@@ -32942,21 +32954,21 @@
       </c>
     </row>
     <row r="155" spans="2:7" ht="15" customHeight="1">
-      <c r="B155" s="8">
+      <c r="B155" s="7">
         <v>152</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="4">
         <v>4</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="4">
         <f t="shared" ref="D155:G155" si="101">D105</f>
         <v>2</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="4">
         <f t="shared" si="101"/>
         <v>144</v>
       </c>
-      <c r="F155" s="6" t="str">
+      <c r="F155" s="4" t="str">
         <f t="shared" si="101"/>
         <v>1|3|4</v>
       </c>
@@ -32966,21 +32978,21 @@
       </c>
     </row>
     <row r="156" spans="2:7" ht="15" customHeight="1">
-      <c r="B156" s="8">
+      <c r="B156" s="7">
         <v>153</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="4">
         <v>4</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="4">
         <f t="shared" ref="D156:G156" si="102">D106</f>
         <v>3</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="4">
         <f t="shared" si="102"/>
         <v>311</v>
       </c>
-      <c r="F156" s="6" t="str">
+      <c r="F156" s="4" t="str">
         <f t="shared" si="102"/>
         <v>1|3|4</v>
       </c>
@@ -32990,21 +33002,21 @@
       </c>
     </row>
     <row r="157" spans="2:7" ht="15" customHeight="1">
-      <c r="B157" s="8">
+      <c r="B157" s="7">
         <v>154</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="4">
         <v>4</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="4">
         <f t="shared" ref="D157:G157" si="103">D107</f>
         <v>4</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="4">
         <f t="shared" si="103"/>
         <v>542</v>
       </c>
-      <c r="F157" s="6" t="str">
+      <c r="F157" s="4" t="str">
         <f t="shared" si="103"/>
         <v>1|3|4</v>
       </c>
@@ -33014,21 +33026,21 @@
       </c>
     </row>
     <row r="158" spans="2:7" ht="15" customHeight="1">
-      <c r="B158" s="8">
+      <c r="B158" s="7">
         <v>155</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="4">
         <v>4</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="4">
         <f t="shared" ref="D158:G158" si="104">D108</f>
         <v>5</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="4">
         <f t="shared" si="104"/>
         <v>837</v>
       </c>
-      <c r="F158" s="6" t="str">
+      <c r="F158" s="4" t="str">
         <f t="shared" si="104"/>
         <v>1|3|4</v>
       </c>
@@ -33038,21 +33050,21 @@
       </c>
     </row>
     <row r="159" spans="2:7" ht="15" customHeight="1">
-      <c r="B159" s="8">
+      <c r="B159" s="7">
         <v>156</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="4">
         <v>4</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="4">
         <f t="shared" ref="D159:G159" si="105">D109</f>
         <v>6</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="4">
         <f t="shared" si="105"/>
         <v>1195</v>
       </c>
-      <c r="F159" s="6" t="str">
+      <c r="F159" s="4" t="str">
         <f t="shared" si="105"/>
         <v>1|3|4</v>
       </c>
@@ -33062,21 +33074,21 @@
       </c>
     </row>
     <row r="160" spans="2:7" ht="15" customHeight="1">
-      <c r="B160" s="8">
+      <c r="B160" s="7">
         <v>157</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="4">
         <v>4</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="4">
         <f t="shared" ref="D160:G160" si="106">D110</f>
         <v>7</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="4">
         <f t="shared" si="106"/>
         <v>1617</v>
       </c>
-      <c r="F160" s="6" t="str">
+      <c r="F160" s="4" t="str">
         <f t="shared" si="106"/>
         <v>1|3|4</v>
       </c>
@@ -33086,21 +33098,21 @@
       </c>
     </row>
     <row r="161" spans="2:7" ht="15" customHeight="1">
-      <c r="B161" s="8">
+      <c r="B161" s="7">
         <v>158</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="4">
         <v>4</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="4">
         <f t="shared" ref="D161:G161" si="107">D111</f>
         <v>8</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="4">
         <f t="shared" si="107"/>
         <v>2103</v>
       </c>
-      <c r="F161" s="6" t="str">
+      <c r="F161" s="4" t="str">
         <f t="shared" si="107"/>
         <v>1|3|4</v>
       </c>
@@ -33110,21 +33122,21 @@
       </c>
     </row>
     <row r="162" spans="2:7" ht="15" customHeight="1">
-      <c r="B162" s="8">
+      <c r="B162" s="7">
         <v>159</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="4">
         <v>4</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="4">
         <f t="shared" ref="D162:G162" si="108">D112</f>
         <v>9</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="4">
         <f t="shared" si="108"/>
         <v>2652</v>
       </c>
-      <c r="F162" s="6" t="str">
+      <c r="F162" s="4" t="str">
         <f t="shared" si="108"/>
         <v>1|3|4</v>
       </c>
@@ -33134,21 +33146,21 @@
       </c>
     </row>
     <row r="163" spans="2:7" ht="15" customHeight="1">
-      <c r="B163" s="8">
+      <c r="B163" s="7">
         <v>160</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="4">
         <v>4</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="4">
         <f t="shared" ref="D163:G163" si="109">D113</f>
         <v>10</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="4">
         <f t="shared" si="109"/>
         <v>3265</v>
       </c>
-      <c r="F163" s="6" t="str">
+      <c r="F163" s="4" t="str">
         <f t="shared" si="109"/>
         <v>1|3|4</v>
       </c>
@@ -33158,21 +33170,21 @@
       </c>
     </row>
     <row r="164" spans="2:7" ht="15" customHeight="1">
-      <c r="B164" s="8">
+      <c r="B164" s="7">
         <v>161</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="4">
         <v>4</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="4">
         <f t="shared" ref="D164:G164" si="110">D114</f>
         <v>11</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="4">
         <f t="shared" si="110"/>
         <v>3942</v>
       </c>
-      <c r="F164" s="6" t="str">
+      <c r="F164" s="4" t="str">
         <f t="shared" si="110"/>
         <v>1|3|4</v>
       </c>
@@ -33182,21 +33194,21 @@
       </c>
     </row>
     <row r="165" spans="2:7" ht="15" customHeight="1">
-      <c r="B165" s="8">
+      <c r="B165" s="7">
         <v>162</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="4">
         <v>4</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="4">
         <f t="shared" ref="D165:G165" si="111">D115</f>
         <v>12</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="4">
         <f t="shared" si="111"/>
         <v>4682</v>
       </c>
-      <c r="F165" s="6" t="str">
+      <c r="F165" s="4" t="str">
         <f t="shared" si="111"/>
         <v>1|3|4</v>
       </c>
@@ -33206,21 +33218,21 @@
       </c>
     </row>
     <row r="166" spans="2:7" ht="15" customHeight="1">
-      <c r="B166" s="8">
+      <c r="B166" s="7">
         <v>163</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="4">
         <v>4</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="4">
         <f t="shared" ref="D166:G166" si="112">D116</f>
         <v>13</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="4">
         <f t="shared" si="112"/>
         <v>5487</v>
       </c>
-      <c r="F166" s="6" t="str">
+      <c r="F166" s="4" t="str">
         <f t="shared" si="112"/>
         <v>1|3|4</v>
       </c>
@@ -33230,21 +33242,21 @@
       </c>
     </row>
     <row r="167" spans="2:7" ht="15" customHeight="1">
-      <c r="B167" s="8">
+      <c r="B167" s="7">
         <v>164</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C167" s="4">
         <v>4</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="4">
         <f t="shared" ref="D167:G167" si="113">D117</f>
         <v>14</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="4">
         <f t="shared" si="113"/>
         <v>6354</v>
       </c>
-      <c r="F167" s="6" t="str">
+      <c r="F167" s="4" t="str">
         <f t="shared" si="113"/>
         <v>1|3|4</v>
       </c>
@@ -33254,21 +33266,21 @@
       </c>
     </row>
     <row r="168" spans="2:7" ht="15" customHeight="1">
-      <c r="B168" s="8">
+      <c r="B168" s="7">
         <v>165</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="4">
         <v>4</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="4">
         <f t="shared" ref="D168:G168" si="114">D118</f>
         <v>15</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="4">
         <f t="shared" si="114"/>
         <v>7286</v>
       </c>
-      <c r="F168" s="6" t="str">
+      <c r="F168" s="4" t="str">
         <f t="shared" si="114"/>
         <v>1|3|4</v>
       </c>
@@ -33278,21 +33290,21 @@
       </c>
     </row>
     <row r="169" spans="2:7" ht="15" customHeight="1">
-      <c r="B169" s="8">
+      <c r="B169" s="7">
         <v>166</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="4">
         <v>4</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="4">
         <f t="shared" ref="D169:G169" si="115">D119</f>
         <v>16</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="4">
         <f t="shared" si="115"/>
         <v>8281</v>
       </c>
-      <c r="F169" s="6" t="str">
+      <c r="F169" s="4" t="str">
         <f t="shared" si="115"/>
         <v>1|3|4</v>
       </c>
@@ -33302,21 +33314,21 @@
       </c>
     </row>
     <row r="170" spans="2:7" ht="15" customHeight="1">
-      <c r="B170" s="8">
+      <c r="B170" s="7">
         <v>167</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="4">
         <v>4</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="4">
         <f t="shared" ref="D170:G170" si="116">D120</f>
         <v>17</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="4">
         <f t="shared" si="116"/>
         <v>9340</v>
       </c>
-      <c r="F170" s="6" t="str">
+      <c r="F170" s="4" t="str">
         <f t="shared" si="116"/>
         <v>1|3|4</v>
       </c>
@@ -33326,21 +33338,21 @@
       </c>
     </row>
     <row r="171" spans="2:7" ht="15" customHeight="1">
-      <c r="B171" s="8">
+      <c r="B171" s="7">
         <v>168</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="4">
         <v>4</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="4">
         <f t="shared" ref="D171:G171" si="117">D121</f>
         <v>18</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="4">
         <f t="shared" si="117"/>
         <v>10462</v>
       </c>
-      <c r="F171" s="6" t="str">
+      <c r="F171" s="4" t="str">
         <f t="shared" si="117"/>
         <v>1|3|4</v>
       </c>
@@ -33350,21 +33362,21 @@
       </c>
     </row>
     <row r="172" spans="2:7" ht="15" customHeight="1">
-      <c r="B172" s="8">
+      <c r="B172" s="7">
         <v>169</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="4">
         <v>4</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="4">
         <f t="shared" ref="D172:G172" si="118">D122</f>
         <v>19</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="4">
         <f t="shared" si="118"/>
         <v>11648</v>
       </c>
-      <c r="F172" s="6" t="str">
+      <c r="F172" s="4" t="str">
         <f t="shared" si="118"/>
         <v>1|3|4</v>
       </c>
@@ -33374,21 +33386,21 @@
       </c>
     </row>
     <row r="173" spans="2:7" ht="15" customHeight="1">
-      <c r="B173" s="8">
+      <c r="B173" s="7">
         <v>170</v>
       </c>
-      <c r="C173" s="6">
+      <c r="C173" s="4">
         <v>4</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="4">
         <f t="shared" ref="D173:G173" si="119">D123</f>
         <v>20</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="4">
         <f t="shared" si="119"/>
         <v>12898</v>
       </c>
-      <c r="F173" s="6" t="str">
+      <c r="F173" s="4" t="str">
         <f t="shared" si="119"/>
         <v>1|3|4</v>
       </c>
@@ -33398,21 +33410,21 @@
       </c>
     </row>
     <row r="174" spans="2:7" ht="15" customHeight="1">
-      <c r="B174" s="8">
+      <c r="B174" s="7">
         <v>171</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="4">
         <v>4</v>
       </c>
-      <c r="D174" s="6">
+      <c r="D174" s="4">
         <f t="shared" ref="D174:G174" si="120">D124</f>
         <v>21</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="4">
         <f t="shared" si="120"/>
         <v>14211</v>
       </c>
-      <c r="F174" s="6" t="str">
+      <c r="F174" s="4" t="str">
         <f t="shared" si="120"/>
         <v>1|3|4</v>
       </c>
@@ -33422,21 +33434,21 @@
       </c>
     </row>
     <row r="175" spans="2:7" ht="15" customHeight="1">
-      <c r="B175" s="8">
+      <c r="B175" s="7">
         <v>172</v>
       </c>
-      <c r="C175" s="6">
+      <c r="C175" s="4">
         <v>4</v>
       </c>
-      <c r="D175" s="6">
+      <c r="D175" s="4">
         <f t="shared" ref="D175:G175" si="121">D125</f>
         <v>22</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="4">
         <f t="shared" si="121"/>
         <v>15589</v>
       </c>
-      <c r="F175" s="6" t="str">
+      <c r="F175" s="4" t="str">
         <f t="shared" si="121"/>
         <v>1|3|4</v>
       </c>
@@ -33446,21 +33458,21 @@
       </c>
     </row>
     <row r="176" spans="2:7" ht="15" customHeight="1">
-      <c r="B176" s="8">
+      <c r="B176" s="7">
         <v>173</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="4">
         <v>4</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="4">
         <f t="shared" ref="D176:G176" si="122">D126</f>
         <v>23</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="4">
         <f t="shared" si="122"/>
         <v>17029</v>
       </c>
-      <c r="F176" s="6" t="str">
+      <c r="F176" s="4" t="str">
         <f t="shared" si="122"/>
         <v>1|3|4</v>
       </c>
@@ -33470,21 +33482,21 @@
       </c>
     </row>
     <row r="177" spans="2:7" ht="15" customHeight="1">
-      <c r="B177" s="8">
+      <c r="B177" s="7">
         <v>174</v>
       </c>
-      <c r="C177" s="6">
+      <c r="C177" s="4">
         <v>4</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="4">
         <f t="shared" ref="D177:G177" si="123">D127</f>
         <v>24</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="4">
         <f t="shared" si="123"/>
         <v>18534</v>
       </c>
-      <c r="F177" s="6" t="str">
+      <c r="F177" s="4" t="str">
         <f t="shared" si="123"/>
         <v>1|3|4</v>
       </c>
@@ -33494,21 +33506,21 @@
       </c>
     </row>
     <row r="178" spans="2:7" ht="15" customHeight="1">
-      <c r="B178" s="8">
+      <c r="B178" s="7">
         <v>175</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="4">
         <v>4</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="4">
         <f t="shared" ref="D178:G178" si="124">D128</f>
         <v>25</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="4">
         <f t="shared" si="124"/>
         <v>20102</v>
       </c>
-      <c r="F178" s="6" t="str">
+      <c r="F178" s="4" t="str">
         <f t="shared" si="124"/>
         <v>1|3|4</v>
       </c>
@@ -33518,21 +33530,21 @@
       </c>
     </row>
     <row r="179" spans="2:7" ht="15" customHeight="1">
-      <c r="B179" s="8">
+      <c r="B179" s="7">
         <v>176</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="4">
         <v>4</v>
       </c>
-      <c r="D179" s="6">
+      <c r="D179" s="4">
         <f t="shared" ref="D179:G179" si="125">D129</f>
         <v>26</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="4">
         <f t="shared" si="125"/>
         <v>21734</v>
       </c>
-      <c r="F179" s="6" t="str">
+      <c r="F179" s="4" t="str">
         <f t="shared" si="125"/>
         <v>1|3|4</v>
       </c>
@@ -33542,21 +33554,21 @@
       </c>
     </row>
     <row r="180" spans="2:7" ht="15" customHeight="1">
-      <c r="B180" s="8">
+      <c r="B180" s="7">
         <v>177</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="4">
         <v>4</v>
       </c>
-      <c r="D180" s="6">
+      <c r="D180" s="4">
         <f t="shared" ref="D180:G180" si="126">D130</f>
         <v>27</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="4">
         <f t="shared" si="126"/>
         <v>23429</v>
       </c>
-      <c r="F180" s="6" t="str">
+      <c r="F180" s="4" t="str">
         <f t="shared" si="126"/>
         <v>1|3|4</v>
       </c>
@@ -33566,21 +33578,21 @@
       </c>
     </row>
     <row r="181" spans="2:7" ht="15" customHeight="1">
-      <c r="B181" s="8">
+      <c r="B181" s="7">
         <v>178</v>
       </c>
-      <c r="C181" s="6">
+      <c r="C181" s="4">
         <v>4</v>
       </c>
-      <c r="D181" s="6">
+      <c r="D181" s="4">
         <f t="shared" ref="D181:G181" si="127">D131</f>
         <v>28</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="4">
         <f t="shared" si="127"/>
         <v>25189</v>
       </c>
-      <c r="F181" s="6" t="str">
+      <c r="F181" s="4" t="str">
         <f t="shared" si="127"/>
         <v>1|3|4</v>
       </c>
@@ -33590,21 +33602,21 @@
       </c>
     </row>
     <row r="182" spans="2:7" ht="15" customHeight="1">
-      <c r="B182" s="8">
+      <c r="B182" s="7">
         <v>179</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C182" s="4">
         <v>4</v>
       </c>
-      <c r="D182" s="6">
+      <c r="D182" s="4">
         <f t="shared" ref="D182:G182" si="128">D132</f>
         <v>29</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E182" s="4">
         <f t="shared" si="128"/>
         <v>27011</v>
       </c>
-      <c r="F182" s="6" t="str">
+      <c r="F182" s="4" t="str">
         <f t="shared" si="128"/>
         <v>1|3|4</v>
       </c>
@@ -33614,21 +33626,21 @@
       </c>
     </row>
     <row r="183" spans="2:7" ht="15" customHeight="1">
-      <c r="B183" s="8">
+      <c r="B183" s="7">
         <v>180</v>
       </c>
-      <c r="C183" s="6">
+      <c r="C183" s="4">
         <v>4</v>
       </c>
-      <c r="D183" s="6">
+      <c r="D183" s="4">
         <f t="shared" ref="D183:G183" si="129">D133</f>
         <v>30</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E183" s="4">
         <f t="shared" si="129"/>
         <v>28898</v>
       </c>
-      <c r="F183" s="6" t="str">
+      <c r="F183" s="4" t="str">
         <f t="shared" si="129"/>
         <v>1|3|4</v>
       </c>
@@ -33638,21 +33650,21 @@
       </c>
     </row>
     <row r="184" spans="2:7" ht="15" customHeight="1">
-      <c r="B184" s="8">
+      <c r="B184" s="7">
         <v>181</v>
       </c>
-      <c r="C184" s="6">
+      <c r="C184" s="4">
         <v>4</v>
       </c>
-      <c r="D184" s="6">
+      <c r="D184" s="4">
         <f t="shared" ref="D184:G184" si="130">D134</f>
         <v>31</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E184" s="4">
         <f t="shared" si="130"/>
         <v>30848</v>
       </c>
-      <c r="F184" s="6" t="str">
+      <c r="F184" s="4" t="str">
         <f t="shared" si="130"/>
         <v>1|3|4</v>
       </c>
@@ -33662,21 +33674,21 @@
       </c>
     </row>
     <row r="185" spans="2:7" ht="15" customHeight="1">
-      <c r="B185" s="8">
+      <c r="B185" s="7">
         <v>182</v>
       </c>
-      <c r="C185" s="6">
+      <c r="C185" s="4">
         <v>4</v>
       </c>
-      <c r="D185" s="6">
+      <c r="D185" s="4">
         <f t="shared" ref="D185:G185" si="131">D135</f>
         <v>32</v>
       </c>
-      <c r="E185" s="6">
+      <c r="E185" s="4">
         <f t="shared" si="131"/>
         <v>32862</v>
       </c>
-      <c r="F185" s="6" t="str">
+      <c r="F185" s="4" t="str">
         <f t="shared" si="131"/>
         <v>1|3|4</v>
       </c>
@@ -33686,21 +33698,21 @@
       </c>
     </row>
     <row r="186" spans="2:7" ht="15" customHeight="1">
-      <c r="B186" s="8">
+      <c r="B186" s="7">
         <v>183</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="4">
         <v>4</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="4">
         <f t="shared" ref="D186:G186" si="132">D136</f>
         <v>33</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E186" s="4">
         <f t="shared" si="132"/>
         <v>34940</v>
       </c>
-      <c r="F186" s="6" t="str">
+      <c r="F186" s="4" t="str">
         <f t="shared" si="132"/>
         <v>1|3|4</v>
       </c>
@@ -33710,21 +33722,21 @@
       </c>
     </row>
     <row r="187" spans="2:7" ht="15" customHeight="1">
-      <c r="B187" s="8">
+      <c r="B187" s="7">
         <v>184</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="4">
         <v>4</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D187" s="4">
         <f t="shared" ref="D187:G187" si="133">D137</f>
         <v>34</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E187" s="4">
         <f t="shared" si="133"/>
         <v>37081</v>
       </c>
-      <c r="F187" s="6" t="str">
+      <c r="F187" s="4" t="str">
         <f t="shared" si="133"/>
         <v>1|3|4</v>
       </c>
@@ -33734,21 +33746,21 @@
       </c>
     </row>
     <row r="188" spans="2:7" ht="15" customHeight="1">
-      <c r="B188" s="8">
+      <c r="B188" s="7">
         <v>185</v>
       </c>
-      <c r="C188" s="6">
+      <c r="C188" s="4">
         <v>4</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D188" s="4">
         <f t="shared" ref="D188:G188" si="134">D138</f>
         <v>35</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E188" s="4">
         <f t="shared" si="134"/>
         <v>39286</v>
       </c>
-      <c r="F188" s="6" t="str">
+      <c r="F188" s="4" t="str">
         <f t="shared" si="134"/>
         <v>1|3|4</v>
       </c>
@@ -33758,21 +33770,21 @@
       </c>
     </row>
     <row r="189" spans="2:7" ht="15" customHeight="1">
-      <c r="B189" s="8">
+      <c r="B189" s="7">
         <v>186</v>
       </c>
-      <c r="C189" s="6">
+      <c r="C189" s="4">
         <v>4</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D189" s="4">
         <f t="shared" ref="D189:G189" si="135">D139</f>
         <v>36</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E189" s="4">
         <f t="shared" si="135"/>
         <v>41554</v>
       </c>
-      <c r="F189" s="6" t="str">
+      <c r="F189" s="4" t="str">
         <f t="shared" si="135"/>
         <v>1|3|4</v>
       </c>
@@ -33782,21 +33794,21 @@
       </c>
     </row>
     <row r="190" spans="2:7" ht="15" customHeight="1">
-      <c r="B190" s="8">
+      <c r="B190" s="7">
         <v>187</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C190" s="4">
         <v>4</v>
       </c>
-      <c r="D190" s="6">
+      <c r="D190" s="4">
         <f t="shared" ref="D190:G190" si="136">D140</f>
         <v>37</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E190" s="4">
         <f t="shared" si="136"/>
         <v>43887</v>
       </c>
-      <c r="F190" s="6" t="str">
+      <c r="F190" s="4" t="str">
         <f t="shared" si="136"/>
         <v>1|3|4</v>
       </c>
@@ -33806,21 +33818,21 @@
       </c>
     </row>
     <row r="191" spans="2:7" ht="15" customHeight="1">
-      <c r="B191" s="8">
+      <c r="B191" s="7">
         <v>188</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C191" s="4">
         <v>4</v>
       </c>
-      <c r="D191" s="6">
+      <c r="D191" s="4">
         <f t="shared" ref="D191:G191" si="137">D141</f>
         <v>38</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E191" s="4">
         <f t="shared" si="137"/>
         <v>46282</v>
       </c>
-      <c r="F191" s="6" t="str">
+      <c r="F191" s="4" t="str">
         <f t="shared" si="137"/>
         <v>1|3|4</v>
       </c>
@@ -33830,21 +33842,21 @@
       </c>
     </row>
     <row r="192" spans="2:7" ht="15" customHeight="1">
-      <c r="B192" s="8">
+      <c r="B192" s="7">
         <v>189</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C192" s="4">
         <v>4</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D192" s="4">
         <f t="shared" ref="D192:G192" si="138">D142</f>
         <v>39</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E192" s="4">
         <f t="shared" si="138"/>
         <v>48742</v>
       </c>
-      <c r="F192" s="6" t="str">
+      <c r="F192" s="4" t="str">
         <f t="shared" si="138"/>
         <v>1|3|4</v>
       </c>
@@ -33854,21 +33866,21 @@
       </c>
     </row>
     <row r="193" spans="2:7" ht="15" customHeight="1">
-      <c r="B193" s="8">
+      <c r="B193" s="7">
         <v>190</v>
       </c>
-      <c r="C193" s="6">
+      <c r="C193" s="4">
         <v>4</v>
       </c>
-      <c r="D193" s="6">
+      <c r="D193" s="4">
         <f t="shared" ref="D193:G193" si="139">D143</f>
         <v>40</v>
       </c>
-      <c r="E193" s="6">
+      <c r="E193" s="4">
         <f t="shared" si="139"/>
         <v>51265</v>
       </c>
-      <c r="F193" s="6" t="str">
+      <c r="F193" s="4" t="str">
         <f t="shared" si="139"/>
         <v>1|3|4</v>
       </c>
@@ -33878,21 +33890,21 @@
       </c>
     </row>
     <row r="194" spans="2:7" ht="15" customHeight="1">
-      <c r="B194" s="8">
+      <c r="B194" s="7">
         <v>191</v>
       </c>
-      <c r="C194" s="6">
+      <c r="C194" s="4">
         <v>4</v>
       </c>
-      <c r="D194" s="6">
+      <c r="D194" s="4">
         <f t="shared" ref="D194:G194" si="140">D144</f>
         <v>41</v>
       </c>
-      <c r="E194" s="6">
+      <c r="E194" s="4">
         <f t="shared" si="140"/>
         <v>53852</v>
       </c>
-      <c r="F194" s="6" t="str">
+      <c r="F194" s="4" t="str">
         <f t="shared" si="140"/>
         <v>1|3|4</v>
       </c>
@@ -33902,21 +33914,21 @@
       </c>
     </row>
     <row r="195" spans="2:7" ht="15" customHeight="1">
-      <c r="B195" s="8">
+      <c r="B195" s="7">
         <v>192</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C195" s="4">
         <v>4</v>
       </c>
-      <c r="D195" s="6">
+      <c r="D195" s="4">
         <f t="shared" ref="D195:G195" si="141">D145</f>
         <v>42</v>
       </c>
-      <c r="E195" s="6">
+      <c r="E195" s="4">
         <f t="shared" si="141"/>
         <v>56503</v>
       </c>
-      <c r="F195" s="6" t="str">
+      <c r="F195" s="4" t="str">
         <f t="shared" si="141"/>
         <v>1|3|4</v>
       </c>
@@ -33926,21 +33938,21 @@
       </c>
     </row>
     <row r="196" spans="2:7" ht="15" customHeight="1">
-      <c r="B196" s="8">
+      <c r="B196" s="7">
         <v>193</v>
       </c>
-      <c r="C196" s="6">
+      <c r="C196" s="4">
         <v>4</v>
       </c>
-      <c r="D196" s="6">
+      <c r="D196" s="4">
         <f t="shared" ref="D196:G196" si="142">D146</f>
         <v>43</v>
       </c>
-      <c r="E196" s="6">
+      <c r="E196" s="4">
         <f t="shared" si="142"/>
         <v>59217</v>
       </c>
-      <c r="F196" s="6" t="str">
+      <c r="F196" s="4" t="str">
         <f t="shared" si="142"/>
         <v>1|3|4</v>
       </c>
@@ -33950,21 +33962,21 @@
       </c>
     </row>
     <row r="197" spans="2:7" ht="15" customHeight="1">
-      <c r="B197" s="8">
+      <c r="B197" s="7">
         <v>194</v>
       </c>
-      <c r="C197" s="6">
+      <c r="C197" s="4">
         <v>4</v>
       </c>
-      <c r="D197" s="6">
+      <c r="D197" s="4">
         <f t="shared" ref="D197:G197" si="143">D147</f>
         <v>44</v>
       </c>
-      <c r="E197" s="6">
+      <c r="E197" s="4">
         <f t="shared" si="143"/>
         <v>61995</v>
       </c>
-      <c r="F197" s="6" t="str">
+      <c r="F197" s="4" t="str">
         <f t="shared" si="143"/>
         <v>1|3|4</v>
       </c>
@@ -33974,21 +33986,21 @@
       </c>
     </row>
     <row r="198" spans="2:7" ht="15" customHeight="1">
-      <c r="B198" s="8">
+      <c r="B198" s="7">
         <v>195</v>
       </c>
-      <c r="C198" s="6">
+      <c r="C198" s="4">
         <v>4</v>
       </c>
-      <c r="D198" s="6">
+      <c r="D198" s="4">
         <f t="shared" ref="D198:G198" si="144">D148</f>
         <v>45</v>
       </c>
-      <c r="E198" s="6">
+      <c r="E198" s="4">
         <f t="shared" si="144"/>
         <v>64837</v>
       </c>
-      <c r="F198" s="6" t="str">
+      <c r="F198" s="4" t="str">
         <f t="shared" si="144"/>
         <v>1|3|4</v>
       </c>
@@ -33998,21 +34010,21 @@
       </c>
     </row>
     <row r="199" spans="2:7" ht="15" customHeight="1">
-      <c r="B199" s="8">
+      <c r="B199" s="7">
         <v>196</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C199" s="4">
         <v>4</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D199" s="4">
         <f t="shared" ref="D199:G199" si="145">D149</f>
         <v>46</v>
       </c>
-      <c r="E199" s="6">
+      <c r="E199" s="4">
         <f t="shared" si="145"/>
         <v>67742</v>
       </c>
-      <c r="F199" s="6" t="str">
+      <c r="F199" s="4" t="str">
         <f t="shared" si="145"/>
         <v>1|3|4</v>
       </c>
@@ -34022,21 +34034,21 @@
       </c>
     </row>
     <row r="200" spans="2:7" ht="15" customHeight="1">
-      <c r="B200" s="8">
+      <c r="B200" s="7">
         <v>197</v>
       </c>
-      <c r="C200" s="6">
+      <c r="C200" s="4">
         <v>4</v>
       </c>
-      <c r="D200" s="6">
+      <c r="D200" s="4">
         <f t="shared" ref="D200:G200" si="146">D150</f>
         <v>47</v>
       </c>
-      <c r="E200" s="6">
+      <c r="E200" s="4">
         <f t="shared" si="146"/>
         <v>70711</v>
       </c>
-      <c r="F200" s="6" t="str">
+      <c r="F200" s="4" t="str">
         <f t="shared" si="146"/>
         <v>1|3|4</v>
       </c>
@@ -34046,21 +34058,21 @@
       </c>
     </row>
     <row r="201" spans="2:7" ht="15" customHeight="1">
-      <c r="B201" s="8">
+      <c r="B201" s="7">
         <v>198</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C201" s="4">
         <v>4</v>
       </c>
-      <c r="D201" s="6">
+      <c r="D201" s="4">
         <f t="shared" ref="D201:G201" si="147">D151</f>
         <v>48</v>
       </c>
-      <c r="E201" s="6">
+      <c r="E201" s="4">
         <f t="shared" si="147"/>
         <v>73744</v>
       </c>
-      <c r="F201" s="6" t="str">
+      <c r="F201" s="4" t="str">
         <f t="shared" si="147"/>
         <v>1|3|4</v>
       </c>
@@ -34070,21 +34082,21 @@
       </c>
     </row>
     <row r="202" spans="2:7" ht="15" customHeight="1">
-      <c r="B202" s="8">
+      <c r="B202" s="7">
         <v>199</v>
       </c>
-      <c r="C202" s="6">
+      <c r="C202" s="4">
         <v>4</v>
       </c>
-      <c r="D202" s="6">
+      <c r="D202" s="4">
         <f t="shared" ref="D202:G202" si="148">D152</f>
         <v>49</v>
       </c>
-      <c r="E202" s="6">
+      <c r="E202" s="4">
         <f t="shared" si="148"/>
         <v>76840</v>
       </c>
-      <c r="F202" s="6" t="str">
+      <c r="F202" s="4" t="str">
         <f t="shared" si="148"/>
         <v>1|3|4</v>
       </c>
@@ -34094,21 +34106,21 @@
       </c>
     </row>
     <row r="203" spans="2:7" ht="15" customHeight="1">
-      <c r="B203" s="8">
+      <c r="B203" s="7">
         <v>200</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C203" s="4">
         <v>4</v>
       </c>
-      <c r="D203" s="6">
+      <c r="D203" s="4">
         <f t="shared" ref="D203:G203" si="149">D153</f>
         <v>50</v>
       </c>
-      <c r="E203" s="6">
+      <c r="E203" s="4">
         <f t="shared" si="149"/>
         <v>80000</v>
       </c>
-      <c r="F203" s="6" t="str">
+      <c r="F203" s="4" t="str">
         <f t="shared" si="149"/>
         <v>1|3|4</v>
       </c>
@@ -34118,21 +34130,21 @@
       </c>
     </row>
     <row r="204" spans="2:7" ht="15" customHeight="1">
-      <c r="B204" s="7">
+      <c r="B204" s="6">
         <v>201</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C204" s="4">
         <v>5</v>
       </c>
-      <c r="D204" s="6">
+      <c r="D204" s="4">
         <f t="shared" ref="D204:G204" si="150">D154</f>
         <v>1</v>
       </c>
-      <c r="E204" s="6">
+      <c r="E204" s="4">
         <f t="shared" si="150"/>
         <v>50</v>
       </c>
-      <c r="F204" s="6" t="str">
+      <c r="F204" s="4" t="str">
         <f t="shared" si="150"/>
         <v>1|3|4</v>
       </c>
@@ -34142,21 +34154,21 @@
       </c>
     </row>
     <row r="205" spans="2:7" ht="15" customHeight="1">
-      <c r="B205" s="7">
+      <c r="B205" s="6">
         <v>202</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="4">
         <v>5</v>
       </c>
-      <c r="D205" s="6">
+      <c r="D205" s="4">
         <f t="shared" ref="D205:G205" si="151">D155</f>
         <v>2</v>
       </c>
-      <c r="E205" s="6">
+      <c r="E205" s="4">
         <f t="shared" si="151"/>
         <v>144</v>
       </c>
-      <c r="F205" s="6" t="str">
+      <c r="F205" s="4" t="str">
         <f t="shared" si="151"/>
         <v>1|3|4</v>
       </c>
@@ -34166,21 +34178,21 @@
       </c>
     </row>
     <row r="206" spans="2:7" ht="15" customHeight="1">
-      <c r="B206" s="7">
+      <c r="B206" s="6">
         <v>203</v>
       </c>
-      <c r="C206" s="6">
+      <c r="C206" s="4">
         <v>5</v>
       </c>
-      <c r="D206" s="6">
+      <c r="D206" s="4">
         <f t="shared" ref="D206:G206" si="152">D156</f>
         <v>3</v>
       </c>
-      <c r="E206" s="6">
+      <c r="E206" s="4">
         <f t="shared" si="152"/>
         <v>311</v>
       </c>
-      <c r="F206" s="6" t="str">
+      <c r="F206" s="4" t="str">
         <f t="shared" si="152"/>
         <v>1|3|4</v>
       </c>
@@ -34190,21 +34202,21 @@
       </c>
     </row>
     <row r="207" spans="2:7" ht="15" customHeight="1">
-      <c r="B207" s="7">
+      <c r="B207" s="6">
         <v>204</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C207" s="4">
         <v>5</v>
       </c>
-      <c r="D207" s="6">
+      <c r="D207" s="4">
         <f t="shared" ref="D207:G207" si="153">D157</f>
         <v>4</v>
       </c>
-      <c r="E207" s="6">
+      <c r="E207" s="4">
         <f t="shared" si="153"/>
         <v>542</v>
       </c>
-      <c r="F207" s="6" t="str">
+      <c r="F207" s="4" t="str">
         <f t="shared" si="153"/>
         <v>1|3|4</v>
       </c>
@@ -34214,21 +34226,21 @@
       </c>
     </row>
     <row r="208" spans="2:7" ht="15" customHeight="1">
-      <c r="B208" s="7">
+      <c r="B208" s="6">
         <v>205</v>
       </c>
-      <c r="C208" s="6">
+      <c r="C208" s="4">
         <v>5</v>
       </c>
-      <c r="D208" s="6">
+      <c r="D208" s="4">
         <f t="shared" ref="D208:G208" si="154">D158</f>
         <v>5</v>
       </c>
-      <c r="E208" s="6">
+      <c r="E208" s="4">
         <f t="shared" si="154"/>
         <v>837</v>
       </c>
-      <c r="F208" s="6" t="str">
+      <c r="F208" s="4" t="str">
         <f t="shared" si="154"/>
         <v>1|3|4</v>
       </c>
@@ -34238,21 +34250,21 @@
       </c>
     </row>
     <row r="209" spans="2:7" ht="15" customHeight="1">
-      <c r="B209" s="7">
+      <c r="B209" s="6">
         <v>206</v>
       </c>
-      <c r="C209" s="6">
+      <c r="C209" s="4">
         <v>5</v>
       </c>
-      <c r="D209" s="6">
+      <c r="D209" s="4">
         <f t="shared" ref="D209:G209" si="155">D159</f>
         <v>6</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E209" s="4">
         <f t="shared" si="155"/>
         <v>1195</v>
       </c>
-      <c r="F209" s="6" t="str">
+      <c r="F209" s="4" t="str">
         <f t="shared" si="155"/>
         <v>1|3|4</v>
       </c>
@@ -34262,21 +34274,21 @@
       </c>
     </row>
     <row r="210" spans="2:7" ht="15" customHeight="1">
-      <c r="B210" s="7">
+      <c r="B210" s="6">
         <v>207</v>
       </c>
-      <c r="C210" s="6">
+      <c r="C210" s="4">
         <v>5</v>
       </c>
-      <c r="D210" s="6">
+      <c r="D210" s="4">
         <f t="shared" ref="D210:G210" si="156">D160</f>
         <v>7</v>
       </c>
-      <c r="E210" s="6">
+      <c r="E210" s="4">
         <f t="shared" si="156"/>
         <v>1617</v>
       </c>
-      <c r="F210" s="6" t="str">
+      <c r="F210" s="4" t="str">
         <f t="shared" si="156"/>
         <v>1|3|4</v>
       </c>
@@ -34286,21 +34298,21 @@
       </c>
     </row>
     <row r="211" spans="2:7" ht="15" customHeight="1">
-      <c r="B211" s="7">
+      <c r="B211" s="6">
         <v>208</v>
       </c>
-      <c r="C211" s="6">
+      <c r="C211" s="4">
         <v>5</v>
       </c>
-      <c r="D211" s="6">
+      <c r="D211" s="4">
         <f t="shared" ref="D211:G211" si="157">D161</f>
         <v>8</v>
       </c>
-      <c r="E211" s="6">
+      <c r="E211" s="4">
         <f t="shared" si="157"/>
         <v>2103</v>
       </c>
-      <c r="F211" s="6" t="str">
+      <c r="F211" s="4" t="str">
         <f t="shared" si="157"/>
         <v>1|3|4</v>
       </c>
@@ -34310,21 +34322,21 @@
       </c>
     </row>
     <row r="212" spans="2:7" ht="15" customHeight="1">
-      <c r="B212" s="7">
+      <c r="B212" s="6">
         <v>209</v>
       </c>
-      <c r="C212" s="6">
+      <c r="C212" s="4">
         <v>5</v>
       </c>
-      <c r="D212" s="6">
+      <c r="D212" s="4">
         <f t="shared" ref="D212:G212" si="158">D162</f>
         <v>9</v>
       </c>
-      <c r="E212" s="6">
+      <c r="E212" s="4">
         <f t="shared" si="158"/>
         <v>2652</v>
       </c>
-      <c r="F212" s="6" t="str">
+      <c r="F212" s="4" t="str">
         <f t="shared" si="158"/>
         <v>1|3|4</v>
       </c>
@@ -34334,21 +34346,21 @@
       </c>
     </row>
     <row r="213" spans="2:7" ht="15" customHeight="1">
-      <c r="B213" s="7">
+      <c r="B213" s="6">
         <v>210</v>
       </c>
-      <c r="C213" s="6">
+      <c r="C213" s="4">
         <v>5</v>
       </c>
-      <c r="D213" s="6">
+      <c r="D213" s="4">
         <f t="shared" ref="D213:G213" si="159">D163</f>
         <v>10</v>
       </c>
-      <c r="E213" s="6">
+      <c r="E213" s="4">
         <f t="shared" si="159"/>
         <v>3265</v>
       </c>
-      <c r="F213" s="6" t="str">
+      <c r="F213" s="4" t="str">
         <f t="shared" si="159"/>
         <v>1|3|4</v>
       </c>
@@ -34358,21 +34370,21 @@
       </c>
     </row>
     <row r="214" spans="2:7" ht="15" customHeight="1">
-      <c r="B214" s="7">
+      <c r="B214" s="6">
         <v>211</v>
       </c>
-      <c r="C214" s="6">
+      <c r="C214" s="4">
         <v>5</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D214" s="4">
         <f t="shared" ref="D214:G214" si="160">D164</f>
         <v>11</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E214" s="4">
         <f t="shared" si="160"/>
         <v>3942</v>
       </c>
-      <c r="F214" s="6" t="str">
+      <c r="F214" s="4" t="str">
         <f t="shared" si="160"/>
         <v>1|3|4</v>
       </c>
@@ -34382,21 +34394,21 @@
       </c>
     </row>
     <row r="215" spans="2:7" ht="15" customHeight="1">
-      <c r="B215" s="7">
+      <c r="B215" s="6">
         <v>212</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="4">
         <v>5</v>
       </c>
-      <c r="D215" s="6">
+      <c r="D215" s="4">
         <f t="shared" ref="D215:G215" si="161">D165</f>
         <v>12</v>
       </c>
-      <c r="E215" s="6">
+      <c r="E215" s="4">
         <f t="shared" si="161"/>
         <v>4682</v>
       </c>
-      <c r="F215" s="6" t="str">
+      <c r="F215" s="4" t="str">
         <f t="shared" si="161"/>
         <v>1|3|4</v>
       </c>
@@ -34406,21 +34418,21 @@
       </c>
     </row>
     <row r="216" spans="2:7" ht="15" customHeight="1">
-      <c r="B216" s="7">
+      <c r="B216" s="6">
         <v>213</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="4">
         <v>5</v>
       </c>
-      <c r="D216" s="6">
+      <c r="D216" s="4">
         <f t="shared" ref="D216:G216" si="162">D166</f>
         <v>13</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E216" s="4">
         <f t="shared" si="162"/>
         <v>5487</v>
       </c>
-      <c r="F216" s="6" t="str">
+      <c r="F216" s="4" t="str">
         <f t="shared" si="162"/>
         <v>1|3|4</v>
       </c>
@@ -34430,21 +34442,21 @@
       </c>
     </row>
     <row r="217" spans="2:7" ht="15" customHeight="1">
-      <c r="B217" s="7">
+      <c r="B217" s="6">
         <v>214</v>
       </c>
-      <c r="C217" s="6">
+      <c r="C217" s="4">
         <v>5</v>
       </c>
-      <c r="D217" s="6">
+      <c r="D217" s="4">
         <f t="shared" ref="D217:G217" si="163">D167</f>
         <v>14</v>
       </c>
-      <c r="E217" s="6">
+      <c r="E217" s="4">
         <f t="shared" si="163"/>
         <v>6354</v>
       </c>
-      <c r="F217" s="6" t="str">
+      <c r="F217" s="4" t="str">
         <f t="shared" si="163"/>
         <v>1|3|4</v>
       </c>
@@ -34454,21 +34466,21 @@
       </c>
     </row>
     <row r="218" spans="2:7" ht="15" customHeight="1">
-      <c r="B218" s="7">
+      <c r="B218" s="6">
         <v>215</v>
       </c>
-      <c r="C218" s="6">
+      <c r="C218" s="4">
         <v>5</v>
       </c>
-      <c r="D218" s="6">
+      <c r="D218" s="4">
         <f t="shared" ref="D218:G218" si="164">D168</f>
         <v>15</v>
       </c>
-      <c r="E218" s="6">
+      <c r="E218" s="4">
         <f t="shared" si="164"/>
         <v>7286</v>
       </c>
-      <c r="F218" s="6" t="str">
+      <c r="F218" s="4" t="str">
         <f t="shared" si="164"/>
         <v>1|3|4</v>
       </c>
@@ -34478,21 +34490,21 @@
       </c>
     </row>
     <row r="219" spans="2:7" ht="15" customHeight="1">
-      <c r="B219" s="7">
+      <c r="B219" s="6">
         <v>216</v>
       </c>
-      <c r="C219" s="6">
+      <c r="C219" s="4">
         <v>5</v>
       </c>
-      <c r="D219" s="6">
+      <c r="D219" s="4">
         <f t="shared" ref="D219:G219" si="165">D169</f>
         <v>16</v>
       </c>
-      <c r="E219" s="6">
+      <c r="E219" s="4">
         <f t="shared" si="165"/>
         <v>8281</v>
       </c>
-      <c r="F219" s="6" t="str">
+      <c r="F219" s="4" t="str">
         <f t="shared" si="165"/>
         <v>1|3|4</v>
       </c>
@@ -34502,21 +34514,21 @@
       </c>
     </row>
     <row r="220" spans="2:7" ht="15" customHeight="1">
-      <c r="B220" s="7">
+      <c r="B220" s="6">
         <v>217</v>
       </c>
-      <c r="C220" s="6">
+      <c r="C220" s="4">
         <v>5</v>
       </c>
-      <c r="D220" s="6">
+      <c r="D220" s="4">
         <f t="shared" ref="D220:G220" si="166">D170</f>
         <v>17</v>
       </c>
-      <c r="E220" s="6">
+      <c r="E220" s="4">
         <f t="shared" si="166"/>
         <v>9340</v>
       </c>
-      <c r="F220" s="6" t="str">
+      <c r="F220" s="4" t="str">
         <f t="shared" si="166"/>
         <v>1|3|4</v>
       </c>
@@ -34526,21 +34538,21 @@
       </c>
     </row>
     <row r="221" spans="2:7" ht="15" customHeight="1">
-      <c r="B221" s="7">
+      <c r="B221" s="6">
         <v>218</v>
       </c>
-      <c r="C221" s="6">
+      <c r="C221" s="4">
         <v>5</v>
       </c>
-      <c r="D221" s="6">
+      <c r="D221" s="4">
         <f t="shared" ref="D221:G221" si="167">D171</f>
         <v>18</v>
       </c>
-      <c r="E221" s="6">
+      <c r="E221" s="4">
         <f t="shared" si="167"/>
         <v>10462</v>
       </c>
-      <c r="F221" s="6" t="str">
+      <c r="F221" s="4" t="str">
         <f t="shared" si="167"/>
         <v>1|3|4</v>
       </c>
@@ -34550,21 +34562,21 @@
       </c>
     </row>
     <row r="222" spans="2:7" ht="15" customHeight="1">
-      <c r="B222" s="7">
+      <c r="B222" s="6">
         <v>219</v>
       </c>
-      <c r="C222" s="6">
+      <c r="C222" s="4">
         <v>5</v>
       </c>
-      <c r="D222" s="6">
+      <c r="D222" s="4">
         <f t="shared" ref="D222:G222" si="168">D172</f>
         <v>19</v>
       </c>
-      <c r="E222" s="6">
+      <c r="E222" s="4">
         <f t="shared" si="168"/>
         <v>11648</v>
       </c>
-      <c r="F222" s="6" t="str">
+      <c r="F222" s="4" t="str">
         <f t="shared" si="168"/>
         <v>1|3|4</v>
       </c>
@@ -34574,21 +34586,21 @@
       </c>
     </row>
     <row r="223" spans="2:7" ht="15" customHeight="1">
-      <c r="B223" s="7">
+      <c r="B223" s="6">
         <v>220</v>
       </c>
-      <c r="C223" s="6">
+      <c r="C223" s="4">
         <v>5</v>
       </c>
-      <c r="D223" s="6">
+      <c r="D223" s="4">
         <f t="shared" ref="D223:G223" si="169">D173</f>
         <v>20</v>
       </c>
-      <c r="E223" s="6">
+      <c r="E223" s="4">
         <f t="shared" si="169"/>
         <v>12898</v>
       </c>
-      <c r="F223" s="6" t="str">
+      <c r="F223" s="4" t="str">
         <f t="shared" si="169"/>
         <v>1|3|4</v>
       </c>
@@ -34598,21 +34610,21 @@
       </c>
     </row>
     <row r="224" spans="2:7" ht="15" customHeight="1">
-      <c r="B224" s="7">
+      <c r="B224" s="6">
         <v>221</v>
       </c>
-      <c r="C224" s="6">
+      <c r="C224" s="4">
         <v>5</v>
       </c>
-      <c r="D224" s="6">
+      <c r="D224" s="4">
         <f t="shared" ref="D224:G224" si="170">D174</f>
         <v>21</v>
       </c>
-      <c r="E224" s="6">
+      <c r="E224" s="4">
         <f t="shared" si="170"/>
         <v>14211</v>
       </c>
-      <c r="F224" s="6" t="str">
+      <c r="F224" s="4" t="str">
         <f t="shared" si="170"/>
         <v>1|3|4</v>
       </c>
@@ -34622,21 +34634,21 @@
       </c>
     </row>
     <row r="225" spans="2:7" ht="15" customHeight="1">
-      <c r="B225" s="7">
+      <c r="B225" s="6">
         <v>222</v>
       </c>
-      <c r="C225" s="6">
+      <c r="C225" s="4">
         <v>5</v>
       </c>
-      <c r="D225" s="6">
+      <c r="D225" s="4">
         <f t="shared" ref="D225:G225" si="171">D175</f>
         <v>22</v>
       </c>
-      <c r="E225" s="6">
+      <c r="E225" s="4">
         <f t="shared" si="171"/>
         <v>15589</v>
       </c>
-      <c r="F225" s="6" t="str">
+      <c r="F225" s="4" t="str">
         <f t="shared" si="171"/>
         <v>1|3|4</v>
       </c>
@@ -34646,21 +34658,21 @@
       </c>
     </row>
     <row r="226" spans="2:7" ht="15" customHeight="1">
-      <c r="B226" s="7">
+      <c r="B226" s="6">
         <v>223</v>
       </c>
-      <c r="C226" s="6">
+      <c r="C226" s="4">
         <v>5</v>
       </c>
-      <c r="D226" s="6">
+      <c r="D226" s="4">
         <f t="shared" ref="D226:G226" si="172">D176</f>
         <v>23</v>
       </c>
-      <c r="E226" s="6">
+      <c r="E226" s="4">
         <f t="shared" si="172"/>
         <v>17029</v>
       </c>
-      <c r="F226" s="6" t="str">
+      <c r="F226" s="4" t="str">
         <f t="shared" si="172"/>
         <v>1|3|4</v>
       </c>
@@ -34670,21 +34682,21 @@
       </c>
     </row>
     <row r="227" spans="2:7" ht="15" customHeight="1">
-      <c r="B227" s="7">
+      <c r="B227" s="6">
         <v>224</v>
       </c>
-      <c r="C227" s="6">
+      <c r="C227" s="4">
         <v>5</v>
       </c>
-      <c r="D227" s="6">
+      <c r="D227" s="4">
         <f t="shared" ref="D227:G227" si="173">D177</f>
         <v>24</v>
       </c>
-      <c r="E227" s="6">
+      <c r="E227" s="4">
         <f t="shared" si="173"/>
         <v>18534</v>
       </c>
-      <c r="F227" s="6" t="str">
+      <c r="F227" s="4" t="str">
         <f t="shared" si="173"/>
         <v>1|3|4</v>
       </c>
@@ -34694,21 +34706,21 @@
       </c>
     </row>
     <row r="228" spans="2:7" ht="15" customHeight="1">
-      <c r="B228" s="7">
+      <c r="B228" s="6">
         <v>225</v>
       </c>
-      <c r="C228" s="6">
+      <c r="C228" s="4">
         <v>5</v>
       </c>
-      <c r="D228" s="6">
+      <c r="D228" s="4">
         <f t="shared" ref="D228:G228" si="174">D178</f>
         <v>25</v>
       </c>
-      <c r="E228" s="6">
+      <c r="E228" s="4">
         <f t="shared" si="174"/>
         <v>20102</v>
       </c>
-      <c r="F228" s="6" t="str">
+      <c r="F228" s="4" t="str">
         <f t="shared" si="174"/>
         <v>1|3|4</v>
       </c>
@@ -34718,21 +34730,21 @@
       </c>
     </row>
     <row r="229" spans="2:7" ht="15" customHeight="1">
-      <c r="B229" s="7">
+      <c r="B229" s="6">
         <v>226</v>
       </c>
-      <c r="C229" s="6">
+      <c r="C229" s="4">
         <v>5</v>
       </c>
-      <c r="D229" s="6">
+      <c r="D229" s="4">
         <f t="shared" ref="D229:G229" si="175">D179</f>
         <v>26</v>
       </c>
-      <c r="E229" s="6">
+      <c r="E229" s="4">
         <f t="shared" si="175"/>
         <v>21734</v>
       </c>
-      <c r="F229" s="6" t="str">
+      <c r="F229" s="4" t="str">
         <f t="shared" si="175"/>
         <v>1|3|4</v>
       </c>
@@ -34742,21 +34754,21 @@
       </c>
     </row>
     <row r="230" spans="2:7" ht="15" customHeight="1">
-      <c r="B230" s="7">
+      <c r="B230" s="6">
         <v>227</v>
       </c>
-      <c r="C230" s="6">
+      <c r="C230" s="4">
         <v>5</v>
       </c>
-      <c r="D230" s="6">
+      <c r="D230" s="4">
         <f t="shared" ref="D230:G230" si="176">D180</f>
         <v>27</v>
       </c>
-      <c r="E230" s="6">
+      <c r="E230" s="4">
         <f t="shared" si="176"/>
         <v>23429</v>
       </c>
-      <c r="F230" s="6" t="str">
+      <c r="F230" s="4" t="str">
         <f t="shared" si="176"/>
         <v>1|3|4</v>
       </c>
@@ -34766,21 +34778,21 @@
       </c>
     </row>
     <row r="231" spans="2:7" ht="15" customHeight="1">
-      <c r="B231" s="7">
+      <c r="B231" s="6">
         <v>228</v>
       </c>
-      <c r="C231" s="6">
+      <c r="C231" s="4">
         <v>5</v>
       </c>
-      <c r="D231" s="6">
+      <c r="D231" s="4">
         <f t="shared" ref="D231:G231" si="177">D181</f>
         <v>28</v>
       </c>
-      <c r="E231" s="6">
+      <c r="E231" s="4">
         <f t="shared" si="177"/>
         <v>25189</v>
       </c>
-      <c r="F231" s="6" t="str">
+      <c r="F231" s="4" t="str">
         <f t="shared" si="177"/>
         <v>1|3|4</v>
       </c>
@@ -34790,21 +34802,21 @@
       </c>
     </row>
     <row r="232" spans="2:7" ht="15" customHeight="1">
-      <c r="B232" s="7">
+      <c r="B232" s="6">
         <v>229</v>
       </c>
-      <c r="C232" s="6">
+      <c r="C232" s="4">
         <v>5</v>
       </c>
-      <c r="D232" s="6">
+      <c r="D232" s="4">
         <f t="shared" ref="D232:G232" si="178">D182</f>
         <v>29</v>
       </c>
-      <c r="E232" s="6">
+      <c r="E232" s="4">
         <f t="shared" si="178"/>
         <v>27011</v>
       </c>
-      <c r="F232" s="6" t="str">
+      <c r="F232" s="4" t="str">
         <f t="shared" si="178"/>
         <v>1|3|4</v>
       </c>
@@ -34814,21 +34826,21 @@
       </c>
     </row>
     <row r="233" spans="2:7" ht="15" customHeight="1">
-      <c r="B233" s="7">
+      <c r="B233" s="6">
         <v>230</v>
       </c>
-      <c r="C233" s="6">
+      <c r="C233" s="4">
         <v>5</v>
       </c>
-      <c r="D233" s="6">
+      <c r="D233" s="4">
         <f t="shared" ref="D233:G233" si="179">D183</f>
         <v>30</v>
       </c>
-      <c r="E233" s="6">
+      <c r="E233" s="4">
         <f t="shared" si="179"/>
         <v>28898</v>
       </c>
-      <c r="F233" s="6" t="str">
+      <c r="F233" s="4" t="str">
         <f t="shared" si="179"/>
         <v>1|3|4</v>
       </c>
@@ -34838,21 +34850,21 @@
       </c>
     </row>
     <row r="234" spans="2:7" ht="15" customHeight="1">
-      <c r="B234" s="7">
+      <c r="B234" s="6">
         <v>231</v>
       </c>
-      <c r="C234" s="6">
+      <c r="C234" s="4">
         <v>5</v>
       </c>
-      <c r="D234" s="6">
+      <c r="D234" s="4">
         <f t="shared" ref="D234:G234" si="180">D184</f>
         <v>31</v>
       </c>
-      <c r="E234" s="6">
+      <c r="E234" s="4">
         <f t="shared" si="180"/>
         <v>30848</v>
       </c>
-      <c r="F234" s="6" t="str">
+      <c r="F234" s="4" t="str">
         <f t="shared" si="180"/>
         <v>1|3|4</v>
       </c>
@@ -34862,21 +34874,21 @@
       </c>
     </row>
     <row r="235" spans="2:7" ht="15" customHeight="1">
-      <c r="B235" s="7">
+      <c r="B235" s="6">
         <v>232</v>
       </c>
-      <c r="C235" s="6">
+      <c r="C235" s="4">
         <v>5</v>
       </c>
-      <c r="D235" s="6">
+      <c r="D235" s="4">
         <f t="shared" ref="D235:G235" si="181">D185</f>
         <v>32</v>
       </c>
-      <c r="E235" s="6">
+      <c r="E235" s="4">
         <f t="shared" si="181"/>
         <v>32862</v>
       </c>
-      <c r="F235" s="6" t="str">
+      <c r="F235" s="4" t="str">
         <f t="shared" si="181"/>
         <v>1|3|4</v>
       </c>
@@ -34886,21 +34898,21 @@
       </c>
     </row>
     <row r="236" spans="2:7" ht="15" customHeight="1">
-      <c r="B236" s="7">
+      <c r="B236" s="6">
         <v>233</v>
       </c>
-      <c r="C236" s="6">
+      <c r="C236" s="4">
         <v>5</v>
       </c>
-      <c r="D236" s="6">
+      <c r="D236" s="4">
         <f t="shared" ref="D236:G236" si="182">D186</f>
         <v>33</v>
       </c>
-      <c r="E236" s="6">
+      <c r="E236" s="4">
         <f t="shared" si="182"/>
         <v>34940</v>
       </c>
-      <c r="F236" s="6" t="str">
+      <c r="F236" s="4" t="str">
         <f t="shared" si="182"/>
         <v>1|3|4</v>
       </c>
@@ -34910,21 +34922,21 @@
       </c>
     </row>
     <row r="237" spans="2:7" ht="15" customHeight="1">
-      <c r="B237" s="7">
+      <c r="B237" s="6">
         <v>234</v>
       </c>
-      <c r="C237" s="6">
+      <c r="C237" s="4">
         <v>5</v>
       </c>
-      <c r="D237" s="6">
+      <c r="D237" s="4">
         <f t="shared" ref="D237:G237" si="183">D187</f>
         <v>34</v>
       </c>
-      <c r="E237" s="6">
+      <c r="E237" s="4">
         <f t="shared" si="183"/>
         <v>37081</v>
       </c>
-      <c r="F237" s="6" t="str">
+      <c r="F237" s="4" t="str">
         <f t="shared" si="183"/>
         <v>1|3|4</v>
       </c>
@@ -34934,21 +34946,21 @@
       </c>
     </row>
     <row r="238" spans="2:7" ht="15" customHeight="1">
-      <c r="B238" s="7">
+      <c r="B238" s="6">
         <v>235</v>
       </c>
-      <c r="C238" s="6">
+      <c r="C238" s="4">
         <v>5</v>
       </c>
-      <c r="D238" s="6">
+      <c r="D238" s="4">
         <f t="shared" ref="D238:G238" si="184">D188</f>
         <v>35</v>
       </c>
-      <c r="E238" s="6">
+      <c r="E238" s="4">
         <f t="shared" si="184"/>
         <v>39286</v>
       </c>
-      <c r="F238" s="6" t="str">
+      <c r="F238" s="4" t="str">
         <f t="shared" si="184"/>
         <v>1|3|4</v>
       </c>
@@ -34958,21 +34970,21 @@
       </c>
     </row>
     <row r="239" spans="2:7" ht="15" customHeight="1">
-      <c r="B239" s="7">
+      <c r="B239" s="6">
         <v>236</v>
       </c>
-      <c r="C239" s="6">
+      <c r="C239" s="4">
         <v>5</v>
       </c>
-      <c r="D239" s="6">
+      <c r="D239" s="4">
         <f t="shared" ref="D239:G239" si="185">D189</f>
         <v>36</v>
       </c>
-      <c r="E239" s="6">
+      <c r="E239" s="4">
         <f t="shared" si="185"/>
         <v>41554</v>
       </c>
-      <c r="F239" s="6" t="str">
+      <c r="F239" s="4" t="str">
         <f t="shared" si="185"/>
         <v>1|3|4</v>
       </c>
@@ -34982,21 +34994,21 @@
       </c>
     </row>
     <row r="240" spans="2:7" ht="15" customHeight="1">
-      <c r="B240" s="7">
+      <c r="B240" s="6">
         <v>237</v>
       </c>
-      <c r="C240" s="6">
+      <c r="C240" s="4">
         <v>5</v>
       </c>
-      <c r="D240" s="6">
+      <c r="D240" s="4">
         <f t="shared" ref="D240:G240" si="186">D190</f>
         <v>37</v>
       </c>
-      <c r="E240" s="6">
+      <c r="E240" s="4">
         <f t="shared" si="186"/>
         <v>43887</v>
       </c>
-      <c r="F240" s="6" t="str">
+      <c r="F240" s="4" t="str">
         <f t="shared" si="186"/>
         <v>1|3|4</v>
       </c>
@@ -35006,21 +35018,21 @@
       </c>
     </row>
     <row r="241" spans="2:7" ht="15" customHeight="1">
-      <c r="B241" s="7">
+      <c r="B241" s="6">
         <v>238</v>
       </c>
-      <c r="C241" s="6">
+      <c r="C241" s="4">
         <v>5</v>
       </c>
-      <c r="D241" s="6">
+      <c r="D241" s="4">
         <f t="shared" ref="D241:G241" si="187">D191</f>
         <v>38</v>
       </c>
-      <c r="E241" s="6">
+      <c r="E241" s="4">
         <f t="shared" si="187"/>
         <v>46282</v>
       </c>
-      <c r="F241" s="6" t="str">
+      <c r="F241" s="4" t="str">
         <f t="shared" si="187"/>
         <v>1|3|4</v>
       </c>
@@ -35030,21 +35042,21 @@
       </c>
     </row>
     <row r="242" spans="2:7" ht="15" customHeight="1">
-      <c r="B242" s="7">
+      <c r="B242" s="6">
         <v>239</v>
       </c>
-      <c r="C242" s="6">
+      <c r="C242" s="4">
         <v>5</v>
       </c>
-      <c r="D242" s="6">
+      <c r="D242" s="4">
         <f t="shared" ref="D242:G242" si="188">D192</f>
         <v>39</v>
       </c>
-      <c r="E242" s="6">
+      <c r="E242" s="4">
         <f t="shared" si="188"/>
         <v>48742</v>
       </c>
-      <c r="F242" s="6" t="str">
+      <c r="F242" s="4" t="str">
         <f t="shared" si="188"/>
         <v>1|3|4</v>
       </c>
@@ -35054,21 +35066,21 @@
       </c>
     </row>
     <row r="243" spans="2:7" ht="15" customHeight="1">
-      <c r="B243" s="7">
+      <c r="B243" s="6">
         <v>240</v>
       </c>
-      <c r="C243" s="6">
+      <c r="C243" s="4">
         <v>5</v>
       </c>
-      <c r="D243" s="6">
+      <c r="D243" s="4">
         <f t="shared" ref="D243:G243" si="189">D193</f>
         <v>40</v>
       </c>
-      <c r="E243" s="6">
+      <c r="E243" s="4">
         <f t="shared" si="189"/>
         <v>51265</v>
       </c>
-      <c r="F243" s="6" t="str">
+      <c r="F243" s="4" t="str">
         <f t="shared" si="189"/>
         <v>1|3|4</v>
       </c>
@@ -35078,21 +35090,21 @@
       </c>
     </row>
     <row r="244" spans="2:7" ht="15" customHeight="1">
-      <c r="B244" s="7">
+      <c r="B244" s="6">
         <v>241</v>
       </c>
-      <c r="C244" s="6">
+      <c r="C244" s="4">
         <v>5</v>
       </c>
-      <c r="D244" s="6">
+      <c r="D244" s="4">
         <f t="shared" ref="D244:G244" si="190">D194</f>
         <v>41</v>
       </c>
-      <c r="E244" s="6">
+      <c r="E244" s="4">
         <f t="shared" si="190"/>
         <v>53852</v>
       </c>
-      <c r="F244" s="6" t="str">
+      <c r="F244" s="4" t="str">
         <f t="shared" si="190"/>
         <v>1|3|4</v>
       </c>
@@ -35102,21 +35114,21 @@
       </c>
     </row>
     <row r="245" spans="2:7" ht="15" customHeight="1">
-      <c r="B245" s="7">
+      <c r="B245" s="6">
         <v>242</v>
       </c>
-      <c r="C245" s="6">
+      <c r="C245" s="4">
         <v>5</v>
       </c>
-      <c r="D245" s="6">
+      <c r="D245" s="4">
         <f t="shared" ref="D245:G245" si="191">D195</f>
         <v>42</v>
       </c>
-      <c r="E245" s="6">
+      <c r="E245" s="4">
         <f t="shared" si="191"/>
         <v>56503</v>
       </c>
-      <c r="F245" s="6" t="str">
+      <c r="F245" s="4" t="str">
         <f t="shared" si="191"/>
         <v>1|3|4</v>
       </c>
@@ -35126,21 +35138,21 @@
       </c>
     </row>
     <row r="246" spans="2:7" ht="15" customHeight="1">
-      <c r="B246" s="7">
+      <c r="B246" s="6">
         <v>243</v>
       </c>
-      <c r="C246" s="6">
+      <c r="C246" s="4">
         <v>5</v>
       </c>
-      <c r="D246" s="6">
+      <c r="D246" s="4">
         <f t="shared" ref="D246:G246" si="192">D196</f>
         <v>43</v>
       </c>
-      <c r="E246" s="6">
+      <c r="E246" s="4">
         <f t="shared" si="192"/>
         <v>59217</v>
       </c>
-      <c r="F246" s="6" t="str">
+      <c r="F246" s="4" t="str">
         <f t="shared" si="192"/>
         <v>1|3|4</v>
       </c>
@@ -35150,21 +35162,21 @@
       </c>
     </row>
     <row r="247" spans="2:7" ht="15" customHeight="1">
-      <c r="B247" s="7">
+      <c r="B247" s="6">
         <v>244</v>
       </c>
-      <c r="C247" s="6">
+      <c r="C247" s="4">
         <v>5</v>
       </c>
-      <c r="D247" s="6">
+      <c r="D247" s="4">
         <f t="shared" ref="D247:G247" si="193">D197</f>
         <v>44</v>
       </c>
-      <c r="E247" s="6">
+      <c r="E247" s="4">
         <f t="shared" si="193"/>
         <v>61995</v>
       </c>
-      <c r="F247" s="6" t="str">
+      <c r="F247" s="4" t="str">
         <f t="shared" si="193"/>
         <v>1|3|4</v>
       </c>
@@ -35174,21 +35186,21 @@
       </c>
     </row>
     <row r="248" spans="2:7" ht="15" customHeight="1">
-      <c r="B248" s="7">
+      <c r="B248" s="6">
         <v>245</v>
       </c>
-      <c r="C248" s="6">
+      <c r="C248" s="4">
         <v>5</v>
       </c>
-      <c r="D248" s="6">
+      <c r="D248" s="4">
         <f t="shared" ref="D248:G248" si="194">D198</f>
         <v>45</v>
       </c>
-      <c r="E248" s="6">
+      <c r="E248" s="4">
         <f t="shared" si="194"/>
         <v>64837</v>
       </c>
-      <c r="F248" s="6" t="str">
+      <c r="F248" s="4" t="str">
         <f t="shared" si="194"/>
         <v>1|3|4</v>
       </c>
@@ -35198,21 +35210,21 @@
       </c>
     </row>
     <row r="249" spans="2:7" ht="15" customHeight="1">
-      <c r="B249" s="7">
+      <c r="B249" s="6">
         <v>246</v>
       </c>
-      <c r="C249" s="6">
+      <c r="C249" s="4">
         <v>5</v>
       </c>
-      <c r="D249" s="6">
+      <c r="D249" s="4">
         <f t="shared" ref="D249:G249" si="195">D199</f>
         <v>46</v>
       </c>
-      <c r="E249" s="6">
+      <c r="E249" s="4">
         <f t="shared" si="195"/>
         <v>67742</v>
       </c>
-      <c r="F249" s="6" t="str">
+      <c r="F249" s="4" t="str">
         <f t="shared" si="195"/>
         <v>1|3|4</v>
       </c>
@@ -35222,21 +35234,21 @@
       </c>
     </row>
     <row r="250" spans="2:7" ht="15" customHeight="1">
-      <c r="B250" s="7">
+      <c r="B250" s="6">
         <v>247</v>
       </c>
-      <c r="C250" s="6">
+      <c r="C250" s="4">
         <v>5</v>
       </c>
-      <c r="D250" s="6">
+      <c r="D250" s="4">
         <f t="shared" ref="D250:G250" si="196">D200</f>
         <v>47</v>
       </c>
-      <c r="E250" s="6">
+      <c r="E250" s="4">
         <f t="shared" si="196"/>
         <v>70711</v>
       </c>
-      <c r="F250" s="6" t="str">
+      <c r="F250" s="4" t="str">
         <f t="shared" si="196"/>
         <v>1|3|4</v>
       </c>
@@ -35246,21 +35258,21 @@
       </c>
     </row>
     <row r="251" spans="2:7" ht="15" customHeight="1">
-      <c r="B251" s="7">
+      <c r="B251" s="6">
         <v>248</v>
       </c>
-      <c r="C251" s="6">
+      <c r="C251" s="4">
         <v>5</v>
       </c>
-      <c r="D251" s="6">
+      <c r="D251" s="4">
         <f t="shared" ref="D251:G251" si="197">D201</f>
         <v>48</v>
       </c>
-      <c r="E251" s="6">
+      <c r="E251" s="4">
         <f t="shared" si="197"/>
         <v>73744</v>
       </c>
-      <c r="F251" s="6" t="str">
+      <c r="F251" s="4" t="str">
         <f t="shared" si="197"/>
         <v>1|3|4</v>
       </c>
@@ -35270,21 +35282,21 @@
       </c>
     </row>
     <row r="252" spans="2:7" ht="15" customHeight="1">
-      <c r="B252" s="7">
+      <c r="B252" s="6">
         <v>249</v>
       </c>
-      <c r="C252" s="6">
+      <c r="C252" s="4">
         <v>5</v>
       </c>
-      <c r="D252" s="6">
+      <c r="D252" s="4">
         <f t="shared" ref="D252:G252" si="198">D202</f>
         <v>49</v>
       </c>
-      <c r="E252" s="6">
+      <c r="E252" s="4">
         <f t="shared" si="198"/>
         <v>76840</v>
       </c>
-      <c r="F252" s="6" t="str">
+      <c r="F252" s="4" t="str">
         <f t="shared" si="198"/>
         <v>1|3|4</v>
       </c>
@@ -35294,26 +35306,1126 @@
       </c>
     </row>
     <row r="253" spans="2:7" ht="15" customHeight="1">
-      <c r="B253" s="7">
+      <c r="B253" s="6">
         <v>250</v>
       </c>
-      <c r="C253" s="6">
+      <c r="C253" s="4">
         <v>5</v>
       </c>
-      <c r="D253" s="6">
+      <c r="D253" s="4">
         <f t="shared" ref="D253:G253" si="199">D203</f>
         <v>50</v>
       </c>
-      <c r="E253" s="6">
+      <c r="E253" s="4">
         <f t="shared" si="199"/>
         <v>80000</v>
       </c>
-      <c r="F253" s="6" t="str">
+      <c r="F253" s="4" t="str">
         <f t="shared" si="199"/>
         <v>1|3|4</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="199"/>
+        <v>54|345|207</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" ht="15" customHeight="1">
+      <c r="B254" s="6">
+        <v>251</v>
+      </c>
+      <c r="C254" s="4">
+        <v>98</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" s="4" t="str">
+        <f t="shared" ref="F254:G254" si="200">F204</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G254" t="str">
+        <f t="shared" si="200"/>
+        <v>5|100|60</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" ht="15" customHeight="1">
+      <c r="B255" s="6">
+        <v>252</v>
+      </c>
+      <c r="C255" s="4">
+        <v>98</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" s="4" t="str">
+        <f t="shared" ref="F255:G255" si="201">F205</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G255" t="str">
+        <f t="shared" si="201"/>
+        <v>6|105|63</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" ht="15" customHeight="1">
+      <c r="B256" s="6">
+        <v>253</v>
+      </c>
+      <c r="C256" s="4">
+        <v>98</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" s="4" t="str">
+        <f t="shared" ref="F256:G256" si="202">F206</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G256" t="str">
+        <f t="shared" si="202"/>
+        <v>7|110|66</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" ht="15" customHeight="1">
+      <c r="B257" s="6">
+        <v>254</v>
+      </c>
+      <c r="C257" s="4">
+        <v>98</v>
+      </c>
+      <c r="D257">
+        <v>4</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257" s="4" t="str">
+        <f t="shared" ref="F257:G257" si="203">F207</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G257" t="str">
+        <f t="shared" si="203"/>
+        <v>8|115|69</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" ht="15" customHeight="1">
+      <c r="B258" s="6">
+        <v>255</v>
+      </c>
+      <c r="C258" s="4">
+        <v>98</v>
+      </c>
+      <c r="D258">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" s="4" t="str">
+        <f t="shared" ref="F258:G258" si="204">F208</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G258" t="str">
+        <f t="shared" si="204"/>
+        <v>9|120|72</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" ht="15" customHeight="1">
+      <c r="B259" s="6">
+        <v>256</v>
+      </c>
+      <c r="C259" s="4">
+        <v>98</v>
+      </c>
+      <c r="D259">
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" s="4" t="str">
+        <f t="shared" ref="F259:G259" si="205">F209</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G259" t="str">
+        <f t="shared" si="205"/>
+        <v>10|125|75</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" ht="15" customHeight="1">
+      <c r="B260" s="6">
+        <v>257</v>
+      </c>
+      <c r="C260" s="4">
+        <v>98</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" s="4" t="str">
+        <f t="shared" ref="F260:G260" si="206">F210</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G260" t="str">
+        <f t="shared" si="206"/>
+        <v>11|130|78</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" ht="15" customHeight="1">
+      <c r="B261" s="6">
+        <v>258</v>
+      </c>
+      <c r="C261" s="4">
+        <v>98</v>
+      </c>
+      <c r="D261">
+        <v>8</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" s="4" t="str">
+        <f t="shared" ref="F261:G261" si="207">F211</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G261" t="str">
+        <f t="shared" si="207"/>
+        <v>12|135|81</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" ht="15" customHeight="1">
+      <c r="B262" s="6">
+        <v>259</v>
+      </c>
+      <c r="C262" s="4">
+        <v>98</v>
+      </c>
+      <c r="D262">
+        <v>9</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" s="4" t="str">
+        <f t="shared" ref="F262:G262" si="208">F212</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G262" t="str">
+        <f t="shared" si="208"/>
+        <v>13|140|84</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" ht="15" customHeight="1">
+      <c r="B263" s="6">
+        <v>260</v>
+      </c>
+      <c r="C263" s="4">
+        <v>98</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" s="4" t="str">
+        <f t="shared" ref="F263:G263" si="209">F213</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G263" t="str">
+        <f t="shared" si="209"/>
+        <v>14|145|87</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" ht="15" customHeight="1">
+      <c r="B264" s="6">
+        <v>261</v>
+      </c>
+      <c r="C264" s="4">
+        <v>98</v>
+      </c>
+      <c r="D264">
+        <v>11</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264" s="4" t="str">
+        <f t="shared" ref="F264:G264" si="210">F214</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G264" t="str">
+        <f t="shared" si="210"/>
+        <v>15|150|90</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" ht="15" customHeight="1">
+      <c r="B265" s="6">
+        <v>262</v>
+      </c>
+      <c r="C265" s="4">
+        <v>98</v>
+      </c>
+      <c r="D265">
+        <v>12</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" s="4" t="str">
+        <f t="shared" ref="F265:G265" si="211">F215</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G265" t="str">
+        <f t="shared" si="211"/>
+        <v>16|155|93</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" ht="15" customHeight="1">
+      <c r="B266" s="6">
+        <v>263</v>
+      </c>
+      <c r="C266" s="4">
+        <v>98</v>
+      </c>
+      <c r="D266">
+        <v>13</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266" s="4" t="str">
+        <f t="shared" ref="F266:G266" si="212">F216</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G266" t="str">
+        <f t="shared" si="212"/>
+        <v>17|160|96</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" ht="15" customHeight="1">
+      <c r="B267" s="6">
+        <v>264</v>
+      </c>
+      <c r="C267" s="4">
+        <v>98</v>
+      </c>
+      <c r="D267">
+        <v>14</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267" s="4" t="str">
+        <f t="shared" ref="F267:G267" si="213">F217</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G267" t="str">
+        <f t="shared" si="213"/>
+        <v>18|165|99</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" ht="15" customHeight="1">
+      <c r="B268" s="6">
+        <v>265</v>
+      </c>
+      <c r="C268" s="4">
+        <v>98</v>
+      </c>
+      <c r="D268">
+        <v>15</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" s="4" t="str">
+        <f t="shared" ref="F268:G268" si="214">F218</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G268" t="str">
+        <f t="shared" si="214"/>
+        <v>19|170|102</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" ht="15" customHeight="1">
+      <c r="B269" s="6">
+        <v>266</v>
+      </c>
+      <c r="C269" s="4">
+        <v>98</v>
+      </c>
+      <c r="D269">
+        <v>16</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269" s="4" t="str">
+        <f t="shared" ref="F269:G269" si="215">F219</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G269" t="str">
+        <f t="shared" si="215"/>
+        <v>20|175|105</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" ht="15" customHeight="1">
+      <c r="B270" s="6">
+        <v>267</v>
+      </c>
+      <c r="C270" s="4">
+        <v>98</v>
+      </c>
+      <c r="D270">
+        <v>17</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270" s="4" t="str">
+        <f t="shared" ref="F270:G270" si="216">F220</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G270" t="str">
+        <f t="shared" si="216"/>
+        <v>21|180|108</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" ht="15" customHeight="1">
+      <c r="B271" s="6">
+        <v>268</v>
+      </c>
+      <c r="C271" s="4">
+        <v>98</v>
+      </c>
+      <c r="D271">
+        <v>18</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271" s="4" t="str">
+        <f t="shared" ref="F271:G271" si="217">F221</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G271" t="str">
+        <f t="shared" si="217"/>
+        <v>22|185|111</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" ht="15" customHeight="1">
+      <c r="B272" s="6">
+        <v>269</v>
+      </c>
+      <c r="C272" s="4">
+        <v>98</v>
+      </c>
+      <c r="D272">
+        <v>19</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272" s="4" t="str">
+        <f t="shared" ref="F272:G272" si="218">F222</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G272" t="str">
+        <f t="shared" si="218"/>
+        <v>23|190|114</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" ht="15" customHeight="1">
+      <c r="B273" s="6">
+        <v>270</v>
+      </c>
+      <c r="C273" s="4">
+        <v>98</v>
+      </c>
+      <c r="D273">
+        <v>20</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" s="4" t="str">
+        <f t="shared" ref="F273:G273" si="219">F223</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G273" t="str">
+        <f t="shared" si="219"/>
+        <v>24|195|117</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" ht="15" customHeight="1">
+      <c r="B274" s="6">
+        <v>271</v>
+      </c>
+      <c r="C274" s="4">
+        <v>98</v>
+      </c>
+      <c r="D274">
+        <v>21</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274" s="4" t="str">
+        <f t="shared" ref="F274:G274" si="220">F224</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G274" t="str">
+        <f t="shared" si="220"/>
+        <v>25|200|120</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" ht="15" customHeight="1">
+      <c r="B275" s="6">
+        <v>272</v>
+      </c>
+      <c r="C275" s="4">
+        <v>98</v>
+      </c>
+      <c r="D275">
+        <v>22</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275" s="4" t="str">
+        <f t="shared" ref="F275:G275" si="221">F225</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G275" t="str">
+        <f t="shared" si="221"/>
+        <v>26|205|123</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" ht="15" customHeight="1">
+      <c r="B276" s="6">
+        <v>273</v>
+      </c>
+      <c r="C276" s="4">
+        <v>98</v>
+      </c>
+      <c r="D276">
+        <v>23</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276" s="4" t="str">
+        <f t="shared" ref="F276:G276" si="222">F226</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G276" t="str">
+        <f t="shared" si="222"/>
+        <v>27|210|126</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" ht="15" customHeight="1">
+      <c r="B277" s="6">
+        <v>274</v>
+      </c>
+      <c r="C277" s="4">
+        <v>98</v>
+      </c>
+      <c r="D277">
+        <v>24</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" s="4" t="str">
+        <f t="shared" ref="F277:G277" si="223">F227</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G277" t="str">
+        <f t="shared" si="223"/>
+        <v>28|215|129</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" ht="15" customHeight="1">
+      <c r="B278" s="6">
+        <v>275</v>
+      </c>
+      <c r="C278" s="4">
+        <v>98</v>
+      </c>
+      <c r="D278">
+        <v>25</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" s="4" t="str">
+        <f t="shared" ref="F278:G278" si="224">F228</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G278" t="str">
+        <f t="shared" si="224"/>
+        <v>29|220|132</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" ht="15" customHeight="1">
+      <c r="B279" s="6">
+        <v>276</v>
+      </c>
+      <c r="C279" s="4">
+        <v>98</v>
+      </c>
+      <c r="D279">
+        <v>26</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" s="4" t="str">
+        <f t="shared" ref="F279:G279" si="225">F229</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G279" t="str">
+        <f t="shared" si="225"/>
+        <v>30|225|135</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" ht="15" customHeight="1">
+      <c r="B280" s="6">
+        <v>277</v>
+      </c>
+      <c r="C280" s="4">
+        <v>98</v>
+      </c>
+      <c r="D280">
+        <v>27</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280" s="4" t="str">
+        <f t="shared" ref="F280:G280" si="226">F230</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G280" t="str">
+        <f t="shared" si="226"/>
+        <v>31|230|138</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" ht="15" customHeight="1">
+      <c r="B281" s="6">
+        <v>278</v>
+      </c>
+      <c r="C281" s="4">
+        <v>98</v>
+      </c>
+      <c r="D281">
+        <v>28</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" s="4" t="str">
+        <f t="shared" ref="F281:G281" si="227">F231</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G281" t="str">
+        <f t="shared" si="227"/>
+        <v>32|235|141</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" ht="15" customHeight="1">
+      <c r="B282" s="6">
+        <v>279</v>
+      </c>
+      <c r="C282" s="4">
+        <v>98</v>
+      </c>
+      <c r="D282">
+        <v>29</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282" s="4" t="str">
+        <f t="shared" ref="F282:G282" si="228">F232</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G282" t="str">
+        <f t="shared" si="228"/>
+        <v>33|240|144</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" ht="15" customHeight="1">
+      <c r="B283" s="6">
+        <v>280</v>
+      </c>
+      <c r="C283" s="4">
+        <v>98</v>
+      </c>
+      <c r="D283">
+        <v>30</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" s="4" t="str">
+        <f t="shared" ref="F283:G283" si="229">F233</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G283" t="str">
+        <f t="shared" si="229"/>
+        <v>34|245|147</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" ht="15" customHeight="1">
+      <c r="B284" s="6">
+        <v>281</v>
+      </c>
+      <c r="C284" s="4">
+        <v>98</v>
+      </c>
+      <c r="D284">
+        <v>31</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284" s="4" t="str">
+        <f t="shared" ref="F284:G284" si="230">F234</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G284" t="str">
+        <f t="shared" si="230"/>
+        <v>35|250|150</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" ht="15" customHeight="1">
+      <c r="B285" s="6">
+        <v>282</v>
+      </c>
+      <c r="C285" s="4">
+        <v>98</v>
+      </c>
+      <c r="D285">
+        <v>32</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" s="4" t="str">
+        <f t="shared" ref="F285:G285" si="231">F235</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G285" t="str">
+        <f t="shared" si="231"/>
+        <v>36|255|153</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" ht="15" customHeight="1">
+      <c r="B286" s="6">
+        <v>283</v>
+      </c>
+      <c r="C286" s="4">
+        <v>98</v>
+      </c>
+      <c r="D286">
+        <v>33</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286" s="4" t="str">
+        <f t="shared" ref="F286:G286" si="232">F236</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G286" t="str">
+        <f t="shared" si="232"/>
+        <v>37|260|156</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" ht="15" customHeight="1">
+      <c r="B287" s="6">
+        <v>284</v>
+      </c>
+      <c r="C287" s="4">
+        <v>98</v>
+      </c>
+      <c r="D287">
+        <v>34</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" s="4" t="str">
+        <f t="shared" ref="F287:G287" si="233">F237</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G287" t="str">
+        <f t="shared" si="233"/>
+        <v>38|265|159</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" ht="15" customHeight="1">
+      <c r="B288" s="6">
+        <v>285</v>
+      </c>
+      <c r="C288" s="4">
+        <v>98</v>
+      </c>
+      <c r="D288">
+        <v>35</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" s="4" t="str">
+        <f t="shared" ref="F288:G288" si="234">F238</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G288" t="str">
+        <f t="shared" si="234"/>
+        <v>39|270|162</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" ht="15" customHeight="1">
+      <c r="B289" s="6">
+        <v>286</v>
+      </c>
+      <c r="C289" s="4">
+        <v>98</v>
+      </c>
+      <c r="D289">
+        <v>36</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" s="4" t="str">
+        <f t="shared" ref="F289:G289" si="235">F239</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G289" t="str">
+        <f t="shared" si="235"/>
+        <v>40|275|165</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" ht="15" customHeight="1">
+      <c r="B290" s="6">
+        <v>287</v>
+      </c>
+      <c r="C290" s="4">
+        <v>98</v>
+      </c>
+      <c r="D290">
+        <v>37</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290" s="4" t="str">
+        <f t="shared" ref="F290:G290" si="236">F240</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G290" t="str">
+        <f t="shared" si="236"/>
+        <v>41|280|168</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" ht="15" customHeight="1">
+      <c r="B291" s="6">
+        <v>288</v>
+      </c>
+      <c r="C291" s="4">
+        <v>98</v>
+      </c>
+      <c r="D291">
+        <v>38</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" s="4" t="str">
+        <f t="shared" ref="F291:G291" si="237">F241</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G291" t="str">
+        <f t="shared" si="237"/>
+        <v>42|285|171</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" ht="15" customHeight="1">
+      <c r="B292" s="6">
+        <v>289</v>
+      </c>
+      <c r="C292" s="4">
+        <v>98</v>
+      </c>
+      <c r="D292">
+        <v>39</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" s="4" t="str">
+        <f t="shared" ref="F292:G292" si="238">F242</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G292" t="str">
+        <f t="shared" si="238"/>
+        <v>43|290|174</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" ht="15" customHeight="1">
+      <c r="B293" s="6">
+        <v>290</v>
+      </c>
+      <c r="C293" s="4">
+        <v>98</v>
+      </c>
+      <c r="D293">
+        <v>40</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" s="4" t="str">
+        <f t="shared" ref="F293:G293" si="239">F243</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G293" t="str">
+        <f t="shared" si="239"/>
+        <v>44|295|177</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" ht="15" customHeight="1">
+      <c r="B294" s="6">
+        <v>291</v>
+      </c>
+      <c r="C294" s="4">
+        <v>98</v>
+      </c>
+      <c r="D294">
+        <v>41</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294" s="4" t="str">
+        <f t="shared" ref="F294:G294" si="240">F244</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G294" t="str">
+        <f t="shared" si="240"/>
+        <v>45|300|180</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" ht="15" customHeight="1">
+      <c r="B295" s="6">
+        <v>292</v>
+      </c>
+      <c r="C295" s="4">
+        <v>98</v>
+      </c>
+      <c r="D295">
+        <v>42</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295" s="4" t="str">
+        <f t="shared" ref="F295:G295" si="241">F245</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G295" t="str">
+        <f t="shared" si="241"/>
+        <v>46|305|183</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" ht="15" customHeight="1">
+      <c r="B296" s="6">
+        <v>293</v>
+      </c>
+      <c r="C296" s="4">
+        <v>98</v>
+      </c>
+      <c r="D296">
+        <v>43</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296" s="4" t="str">
+        <f t="shared" ref="F296:G296" si="242">F246</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G296" t="str">
+        <f t="shared" si="242"/>
+        <v>47|310|186</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" ht="15" customHeight="1">
+      <c r="B297" s="6">
+        <v>294</v>
+      </c>
+      <c r="C297" s="4">
+        <v>98</v>
+      </c>
+      <c r="D297">
+        <v>44</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" s="4" t="str">
+        <f t="shared" ref="F297:G297" si="243">F247</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G297" t="str">
+        <f t="shared" si="243"/>
+        <v>48|315|189</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" ht="15" customHeight="1">
+      <c r="B298" s="6">
+        <v>295</v>
+      </c>
+      <c r="C298" s="4">
+        <v>98</v>
+      </c>
+      <c r="D298">
+        <v>45</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" s="4" t="str">
+        <f t="shared" ref="F298:G298" si="244">F248</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G298" t="str">
+        <f t="shared" si="244"/>
+        <v>49|320|192</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" ht="15" customHeight="1">
+      <c r="B299" s="6">
+        <v>296</v>
+      </c>
+      <c r="C299" s="4">
+        <v>98</v>
+      </c>
+      <c r="D299">
+        <v>46</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" s="4" t="str">
+        <f t="shared" ref="F299:G299" si="245">F249</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G299" t="str">
+        <f t="shared" si="245"/>
+        <v>50|325|195</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" ht="15" customHeight="1">
+      <c r="B300" s="6">
+        <v>297</v>
+      </c>
+      <c r="C300" s="4">
+        <v>98</v>
+      </c>
+      <c r="D300">
+        <v>47</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" s="4" t="str">
+        <f t="shared" ref="F300:G300" si="246">F250</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G300" t="str">
+        <f t="shared" si="246"/>
+        <v>51|330|198</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" ht="15" customHeight="1">
+      <c r="B301" s="6">
+        <v>298</v>
+      </c>
+      <c r="C301" s="4">
+        <v>98</v>
+      </c>
+      <c r="D301">
+        <v>48</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" s="4" t="str">
+        <f t="shared" ref="F301:G301" si="247">F251</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G301" t="str">
+        <f t="shared" si="247"/>
+        <v>52|335|201</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" ht="15" customHeight="1">
+      <c r="B302" s="6">
+        <v>299</v>
+      </c>
+      <c r="C302" s="4">
+        <v>98</v>
+      </c>
+      <c r="D302">
+        <v>49</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302" s="4" t="str">
+        <f t="shared" ref="F302:G302" si="248">F252</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G302" t="str">
+        <f t="shared" si="248"/>
+        <v>53|340|204</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" ht="15" customHeight="1">
+      <c r="B303" s="6">
+        <v>300</v>
+      </c>
+      <c r="C303" s="4">
+        <v>98</v>
+      </c>
+      <c r="D303">
+        <v>50</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303" s="4" t="str">
+        <f t="shared" ref="F303:G303" si="249">F253</f>
+        <v>1|3|4</v>
+      </c>
+      <c r="G303" t="str">
+        <f t="shared" si="249"/>
         <v>54|345|207</v>
       </c>
     </row>
@@ -35337,7 +36449,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="C1" s="5" t="s">
@@ -35348,7 +36460,7 @@
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
